--- a/INTLINE/data/193/ABS/07_volume_measures_seasonally_adjusted_capex.xlsx
+++ b/INTLINE/data/193/ABS/07_volume_measures_seasonally_adjusted_capex.xlsx
@@ -12,179 +12,179 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124797535F">Data1!$B$1:$B$10,Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797535F_Data">Data1!$B$11:$B$148</definedName>
-    <definedName name="A124797535F_Latest">Data1!$B$148</definedName>
-    <definedName name="A124797536J">Data1!$U$1:$U$10,Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797536J_Data">Data1!$U$11:$U$148</definedName>
-    <definedName name="A124797536J_Latest">Data1!$U$148</definedName>
-    <definedName name="A124797537K">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797537K_Data">Data1!$AN$11:$AN$148</definedName>
-    <definedName name="A124797537K_Latest">Data1!$AN$148</definedName>
-    <definedName name="A124797601T">Data1!$R$1:$R$10,Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797601T_Data">Data1!$R$131:$R$148</definedName>
-    <definedName name="A124797601T_Latest">Data1!$R$148</definedName>
-    <definedName name="A124797602V">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797602V_Data">Data1!$AK$131:$AK$148</definedName>
-    <definedName name="A124797602V_Latest">Data1!$AK$148</definedName>
-    <definedName name="A124797603W">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797603W_Data">Data1!$BD$131:$BD$148</definedName>
-    <definedName name="A124797603W_Latest">Data1!$BD$148</definedName>
-    <definedName name="A124797833C">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797833C_Data">Data1!$Q$131:$Q$148</definedName>
-    <definedName name="A124797833C_Latest">Data1!$Q$148</definedName>
-    <definedName name="A124797834F">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797834F_Data">Data1!$AJ$131:$AJ$148</definedName>
-    <definedName name="A124797834F_Latest">Data1!$AJ$148</definedName>
-    <definedName name="A124797835J">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797835J_Data">Data1!$BC$131:$BC$148</definedName>
-    <definedName name="A124797835J_Latest">Data1!$BC$148</definedName>
-    <definedName name="A124798315W">Data1!$D$1:$D$10,Data1!$D$11:$D$148</definedName>
-    <definedName name="A124798315W_Data">Data1!$D$11:$D$148</definedName>
-    <definedName name="A124798315W_Latest">Data1!$D$148</definedName>
-    <definedName name="A124798316X">Data1!$W$1:$W$10,Data1!$W$11:$W$148</definedName>
-    <definedName name="A124798316X_Data">Data1!$W$11:$W$148</definedName>
-    <definedName name="A124798316X_Latest">Data1!$W$148</definedName>
-    <definedName name="A124798317A">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124798317A_Data">Data1!$AP$11:$AP$148</definedName>
-    <definedName name="A124798317A_Latest">Data1!$AP$148</definedName>
-    <definedName name="A124798494R">Data1!$P$1:$P$10,Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798494R_Data">Data1!$P$11:$P$148</definedName>
-    <definedName name="A124798494R_Latest">Data1!$P$148</definedName>
-    <definedName name="A124798495T">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798495T_Data">Data1!$AI$11:$AI$148</definedName>
-    <definedName name="A124798495T_Latest">Data1!$AI$148</definedName>
-    <definedName name="A124798496V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798496V_Data">Data1!$BB$11:$BB$148</definedName>
-    <definedName name="A124798496V_Latest">Data1!$BB$148</definedName>
-    <definedName name="A124798777R">Data1!$J$1:$J$10,Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798777R_Data">Data1!$J$11:$J$148</definedName>
-    <definedName name="A124798777R_Latest">Data1!$J$148</definedName>
-    <definedName name="A124798778T">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798778T_Data">Data1!$AC$11:$AC$148</definedName>
-    <definedName name="A124798778T_Latest">Data1!$AC$148</definedName>
-    <definedName name="A124798779V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798779V_Data">Data1!$AV$11:$AV$148</definedName>
-    <definedName name="A124798779V_Latest">Data1!$AV$148</definedName>
-    <definedName name="A124798935K">Data1!$T$1:$T$10,Data1!$T$11:$T$148</definedName>
-    <definedName name="A124798935K_Data">Data1!$T$11:$T$148</definedName>
-    <definedName name="A124798935K_Latest">Data1!$T$148</definedName>
-    <definedName name="A124798936L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124798936L_Data">Data1!$AM$11:$AM$148</definedName>
-    <definedName name="A124798936L_Latest">Data1!$AM$148</definedName>
-    <definedName name="A124798937R">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124798937R_Data">Data1!$BF$11:$BF$148</definedName>
-    <definedName name="A124798937R_Latest">Data1!$BF$148</definedName>
-    <definedName name="A124799040R">Data1!$S$1:$S$10,Data1!$S$11:$S$148</definedName>
-    <definedName name="A124799040R_Data">Data1!$S$11:$S$148</definedName>
-    <definedName name="A124799040R_Latest">Data1!$S$148</definedName>
-    <definedName name="A124799041T">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124799041T_Data">Data1!$AL$11:$AL$148</definedName>
-    <definedName name="A124799041T_Latest">Data1!$AL$148</definedName>
-    <definedName name="A124799042V">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124799042V_Data">Data1!$BE$11:$BE$148</definedName>
-    <definedName name="A124799042V_Latest">Data1!$BE$148</definedName>
-    <definedName name="A3515875V">Data1!$C$1:$C$10,Data1!$C$11:$C$148</definedName>
-    <definedName name="A3515875V_Data">Data1!$C$11:$C$148</definedName>
-    <definedName name="A3515875V_Latest">Data1!$C$148</definedName>
-    <definedName name="A3515878A">Data1!$E$1:$E$10,Data1!$E$11:$E$148</definedName>
-    <definedName name="A3515878A_Data">Data1!$E$11:$E$148</definedName>
-    <definedName name="A3515878A_Latest">Data1!$E$148</definedName>
-    <definedName name="A3515881R">Data1!$F$1:$F$10,Data1!$F$11:$F$148</definedName>
-    <definedName name="A3515881R_Data">Data1!$F$11:$F$148</definedName>
-    <definedName name="A3515881R_Latest">Data1!$F$148</definedName>
-    <definedName name="A3515884W">Data1!$G$1:$G$10,Data1!$G$11:$G$148</definedName>
-    <definedName name="A3515884W_Data">Data1!$G$11:$G$148</definedName>
-    <definedName name="A3515884W_Latest">Data1!$G$148</definedName>
-    <definedName name="A3515887C">Data1!$H$1:$H$10,Data1!$H$11:$H$148</definedName>
-    <definedName name="A3515887C_Data">Data1!$H$11:$H$148</definedName>
-    <definedName name="A3515887C_Latest">Data1!$H$148</definedName>
-    <definedName name="A3515890T">Data1!$I$1:$I$10,Data1!$I$11:$I$148</definedName>
-    <definedName name="A3515890T_Data">Data1!$I$11:$I$148</definedName>
-    <definedName name="A3515890T_Latest">Data1!$I$148</definedName>
-    <definedName name="A3515893X">Data1!$K$1:$K$10,Data1!$K$11:$K$148</definedName>
-    <definedName name="A3515893X_Data">Data1!$K$11:$K$148</definedName>
-    <definedName name="A3515893X_Latest">Data1!$K$148</definedName>
-    <definedName name="A3515896F">Data1!$L$1:$L$10,Data1!$L$11:$L$148</definedName>
-    <definedName name="A3515896F_Data">Data1!$L$11:$L$148</definedName>
-    <definedName name="A3515896F_Latest">Data1!$L$148</definedName>
-    <definedName name="A3515899L">Data1!$M$1:$M$10,Data1!$M$11:$M$148</definedName>
-    <definedName name="A3515899L_Data">Data1!$M$11:$M$148</definedName>
-    <definedName name="A3515899L_Latest">Data1!$M$148</definedName>
-    <definedName name="A3515902R">Data1!$N$1:$N$10,Data1!$N$11:$N$148</definedName>
-    <definedName name="A3515902R_Data">Data1!$N$11:$N$148</definedName>
-    <definedName name="A3515902R_Latest">Data1!$N$148</definedName>
-    <definedName name="A3515905W">Data1!$O$1:$O$10,Data1!$O$11:$O$148</definedName>
-    <definedName name="A3515905W_Data">Data1!$O$11:$O$148</definedName>
-    <definedName name="A3515905W_Latest">Data1!$O$148</definedName>
-    <definedName name="A3515917F">Data1!$V$1:$V$10,Data1!$V$11:$V$148</definedName>
-    <definedName name="A3515917F_Data">Data1!$V$11:$V$148</definedName>
-    <definedName name="A3515917F_Latest">Data1!$V$148</definedName>
-    <definedName name="A3515920V">Data1!$X$1:$X$10,Data1!$X$11:$X$148</definedName>
-    <definedName name="A3515920V_Data">Data1!$X$11:$X$148</definedName>
-    <definedName name="A3515920V_Latest">Data1!$X$148</definedName>
-    <definedName name="A3515923A">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3515923A_Data">Data1!$Y$11:$Y$148</definedName>
-    <definedName name="A3515923A_Latest">Data1!$Y$148</definedName>
-    <definedName name="A3515926J">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3515926J_Data">Data1!$Z$11:$Z$148</definedName>
-    <definedName name="A3515926J_Latest">Data1!$Z$148</definedName>
-    <definedName name="A3515929R">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3515929R_Data">Data1!$AA$11:$AA$148</definedName>
-    <definedName name="A3515929R_Latest">Data1!$AA$148</definedName>
-    <definedName name="A3515932C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3515932C_Data">Data1!$AB$11:$AB$148</definedName>
-    <definedName name="A3515932C_Latest">Data1!$AB$148</definedName>
-    <definedName name="A3515935K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3515935K_Data">Data1!$AD$11:$AD$148</definedName>
-    <definedName name="A3515935K_Latest">Data1!$AD$148</definedName>
-    <definedName name="A3515938T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3515938T_Data">Data1!$AE$11:$AE$148</definedName>
-    <definedName name="A3515938T_Latest">Data1!$AE$148</definedName>
-    <definedName name="A3515941F">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3515941F_Data">Data1!$AF$11:$AF$148</definedName>
-    <definedName name="A3515941F_Latest">Data1!$AF$148</definedName>
-    <definedName name="A3515944L">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3515944L_Data">Data1!$AG$11:$AG$148</definedName>
-    <definedName name="A3515944L_Latest">Data1!$AG$148</definedName>
-    <definedName name="A3515947V">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3515947V_Data">Data1!$AH$11:$AH$148</definedName>
-    <definedName name="A3515947V_Latest">Data1!$AH$148</definedName>
-    <definedName name="A3515959C">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3515959C_Data">Data1!$AO$11:$AO$148</definedName>
-    <definedName name="A3515959C_Latest">Data1!$AO$148</definedName>
-    <definedName name="A3515962T">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3515962T_Data">Data1!$AQ$11:$AQ$148</definedName>
-    <definedName name="A3515962T_Latest">Data1!$AQ$148</definedName>
-    <definedName name="A3515965X">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3515965X_Data">Data1!$AR$11:$AR$148</definedName>
-    <definedName name="A3515965X_Latest">Data1!$AR$148</definedName>
-    <definedName name="A3515968F">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3515968F_Data">Data1!$AS$11:$AS$148</definedName>
-    <definedName name="A3515968F_Latest">Data1!$AS$148</definedName>
-    <definedName name="A3515971V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3515971V_Data">Data1!$AT$11:$AT$148</definedName>
-    <definedName name="A3515971V_Latest">Data1!$AT$148</definedName>
-    <definedName name="A3515974A">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3515974A_Data">Data1!$AU$11:$AU$148</definedName>
-    <definedName name="A3515974A_Latest">Data1!$AU$148</definedName>
-    <definedName name="A3515977J">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3515977J_Data">Data1!$AW$11:$AW$148</definedName>
-    <definedName name="A3515977J_Latest">Data1!$AW$148</definedName>
-    <definedName name="A3515980W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3515980W_Data">Data1!$AX$11:$AX$148</definedName>
-    <definedName name="A3515980W_Latest">Data1!$AX$148</definedName>
-    <definedName name="A3515983C">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3515983C_Data">Data1!$AY$11:$AY$148</definedName>
-    <definedName name="A3515983C_Latest">Data1!$AY$148</definedName>
-    <definedName name="A3515986K">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3515986K_Data">Data1!$AZ$11:$AZ$148</definedName>
-    <definedName name="A3515986K_Latest">Data1!$AZ$148</definedName>
-    <definedName name="A3515989T">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3515989T_Data">Data1!$BA$11:$BA$148</definedName>
-    <definedName name="A3515989T_Latest">Data1!$BA$148</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$148</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$148</definedName>
+    <definedName name="A124797535F">Data1!$B$1:$B$10,Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797535F_Data">Data1!$B$11:$B$149</definedName>
+    <definedName name="A124797535F_Latest">Data1!$B$149</definedName>
+    <definedName name="A124797536J">Data1!$U$1:$U$10,Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797536J_Data">Data1!$U$11:$U$149</definedName>
+    <definedName name="A124797536J_Latest">Data1!$U$149</definedName>
+    <definedName name="A124797537K">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797537K_Data">Data1!$AN$11:$AN$149</definedName>
+    <definedName name="A124797537K_Latest">Data1!$AN$149</definedName>
+    <definedName name="A124797601T">Data1!$R$1:$R$10,Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797601T_Data">Data1!$R$131:$R$149</definedName>
+    <definedName name="A124797601T_Latest">Data1!$R$149</definedName>
+    <definedName name="A124797602V">Data1!$AK$1:$AK$10,Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797602V_Data">Data1!$AK$131:$AK$149</definedName>
+    <definedName name="A124797602V_Latest">Data1!$AK$149</definedName>
+    <definedName name="A124797603W">Data1!$BD$1:$BD$10,Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797603W_Data">Data1!$BD$131:$BD$149</definedName>
+    <definedName name="A124797603W_Latest">Data1!$BD$149</definedName>
+    <definedName name="A124797833C">Data1!$Q$1:$Q$10,Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797833C_Data">Data1!$Q$131:$Q$149</definedName>
+    <definedName name="A124797833C_Latest">Data1!$Q$149</definedName>
+    <definedName name="A124797834F">Data1!$AJ$1:$AJ$10,Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797834F_Data">Data1!$AJ$131:$AJ$149</definedName>
+    <definedName name="A124797834F_Latest">Data1!$AJ$149</definedName>
+    <definedName name="A124797835J">Data1!$BC$1:$BC$10,Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797835J_Data">Data1!$BC$131:$BC$149</definedName>
+    <definedName name="A124797835J_Latest">Data1!$BC$149</definedName>
+    <definedName name="A124798315W">Data1!$D$1:$D$10,Data1!$D$11:$D$149</definedName>
+    <definedName name="A124798315W_Data">Data1!$D$11:$D$149</definedName>
+    <definedName name="A124798315W_Latest">Data1!$D$149</definedName>
+    <definedName name="A124798316X">Data1!$W$1:$W$10,Data1!$W$11:$W$149</definedName>
+    <definedName name="A124798316X_Data">Data1!$W$11:$W$149</definedName>
+    <definedName name="A124798316X_Latest">Data1!$W$149</definedName>
+    <definedName name="A124798317A">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124798317A_Data">Data1!$AP$11:$AP$149</definedName>
+    <definedName name="A124798317A_Latest">Data1!$AP$149</definedName>
+    <definedName name="A124798494R">Data1!$P$1:$P$10,Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798494R_Data">Data1!$P$11:$P$149</definedName>
+    <definedName name="A124798494R_Latest">Data1!$P$149</definedName>
+    <definedName name="A124798495T">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798495T_Data">Data1!$AI$11:$AI$149</definedName>
+    <definedName name="A124798495T_Latest">Data1!$AI$149</definedName>
+    <definedName name="A124798496V">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798496V_Data">Data1!$BB$11:$BB$149</definedName>
+    <definedName name="A124798496V_Latest">Data1!$BB$149</definedName>
+    <definedName name="A124798777R">Data1!$J$1:$J$10,Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798777R_Data">Data1!$J$11:$J$149</definedName>
+    <definedName name="A124798777R_Latest">Data1!$J$149</definedName>
+    <definedName name="A124798778T">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798778T_Data">Data1!$AC$11:$AC$149</definedName>
+    <definedName name="A124798778T_Latest">Data1!$AC$149</definedName>
+    <definedName name="A124798779V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798779V_Data">Data1!$AV$11:$AV$149</definedName>
+    <definedName name="A124798779V_Latest">Data1!$AV$149</definedName>
+    <definedName name="A124798935K">Data1!$T$1:$T$10,Data1!$T$11:$T$149</definedName>
+    <definedName name="A124798935K_Data">Data1!$T$11:$T$149</definedName>
+    <definedName name="A124798935K_Latest">Data1!$T$149</definedName>
+    <definedName name="A124798936L">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124798936L_Data">Data1!$AM$11:$AM$149</definedName>
+    <definedName name="A124798936L_Latest">Data1!$AM$149</definedName>
+    <definedName name="A124798937R">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124798937R_Data">Data1!$BF$11:$BF$149</definedName>
+    <definedName name="A124798937R_Latest">Data1!$BF$149</definedName>
+    <definedName name="A124799040R">Data1!$S$1:$S$10,Data1!$S$11:$S$149</definedName>
+    <definedName name="A124799040R_Data">Data1!$S$11:$S$149</definedName>
+    <definedName name="A124799040R_Latest">Data1!$S$149</definedName>
+    <definedName name="A124799041T">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124799041T_Data">Data1!$AL$11:$AL$149</definedName>
+    <definedName name="A124799041T_Latest">Data1!$AL$149</definedName>
+    <definedName name="A124799042V">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124799042V_Data">Data1!$BE$11:$BE$149</definedName>
+    <definedName name="A124799042V_Latest">Data1!$BE$149</definedName>
+    <definedName name="A3515875V">Data1!$C$1:$C$10,Data1!$C$11:$C$149</definedName>
+    <definedName name="A3515875V_Data">Data1!$C$11:$C$149</definedName>
+    <definedName name="A3515875V_Latest">Data1!$C$149</definedName>
+    <definedName name="A3515878A">Data1!$E$1:$E$10,Data1!$E$11:$E$149</definedName>
+    <definedName name="A3515878A_Data">Data1!$E$11:$E$149</definedName>
+    <definedName name="A3515878A_Latest">Data1!$E$149</definedName>
+    <definedName name="A3515881R">Data1!$F$1:$F$10,Data1!$F$11:$F$149</definedName>
+    <definedName name="A3515881R_Data">Data1!$F$11:$F$149</definedName>
+    <definedName name="A3515881R_Latest">Data1!$F$149</definedName>
+    <definedName name="A3515884W">Data1!$G$1:$G$10,Data1!$G$11:$G$149</definedName>
+    <definedName name="A3515884W_Data">Data1!$G$11:$G$149</definedName>
+    <definedName name="A3515884W_Latest">Data1!$G$149</definedName>
+    <definedName name="A3515887C">Data1!$H$1:$H$10,Data1!$H$11:$H$149</definedName>
+    <definedName name="A3515887C_Data">Data1!$H$11:$H$149</definedName>
+    <definedName name="A3515887C_Latest">Data1!$H$149</definedName>
+    <definedName name="A3515890T">Data1!$I$1:$I$10,Data1!$I$11:$I$149</definedName>
+    <definedName name="A3515890T_Data">Data1!$I$11:$I$149</definedName>
+    <definedName name="A3515890T_Latest">Data1!$I$149</definedName>
+    <definedName name="A3515893X">Data1!$K$1:$K$10,Data1!$K$11:$K$149</definedName>
+    <definedName name="A3515893X_Data">Data1!$K$11:$K$149</definedName>
+    <definedName name="A3515893X_Latest">Data1!$K$149</definedName>
+    <definedName name="A3515896F">Data1!$L$1:$L$10,Data1!$L$11:$L$149</definedName>
+    <definedName name="A3515896F_Data">Data1!$L$11:$L$149</definedName>
+    <definedName name="A3515896F_Latest">Data1!$L$149</definedName>
+    <definedName name="A3515899L">Data1!$M$1:$M$10,Data1!$M$11:$M$149</definedName>
+    <definedName name="A3515899L_Data">Data1!$M$11:$M$149</definedName>
+    <definedName name="A3515899L_Latest">Data1!$M$149</definedName>
+    <definedName name="A3515902R">Data1!$N$1:$N$10,Data1!$N$11:$N$149</definedName>
+    <definedName name="A3515902R_Data">Data1!$N$11:$N$149</definedName>
+    <definedName name="A3515902R_Latest">Data1!$N$149</definedName>
+    <definedName name="A3515905W">Data1!$O$1:$O$10,Data1!$O$11:$O$149</definedName>
+    <definedName name="A3515905W_Data">Data1!$O$11:$O$149</definedName>
+    <definedName name="A3515905W_Latest">Data1!$O$149</definedName>
+    <definedName name="A3515917F">Data1!$V$1:$V$10,Data1!$V$11:$V$149</definedName>
+    <definedName name="A3515917F_Data">Data1!$V$11:$V$149</definedName>
+    <definedName name="A3515917F_Latest">Data1!$V$149</definedName>
+    <definedName name="A3515920V">Data1!$X$1:$X$10,Data1!$X$11:$X$149</definedName>
+    <definedName name="A3515920V_Data">Data1!$X$11:$X$149</definedName>
+    <definedName name="A3515920V_Latest">Data1!$X$149</definedName>
+    <definedName name="A3515923A">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3515923A_Data">Data1!$Y$11:$Y$149</definedName>
+    <definedName name="A3515923A_Latest">Data1!$Y$149</definedName>
+    <definedName name="A3515926J">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3515926J_Data">Data1!$Z$11:$Z$149</definedName>
+    <definedName name="A3515926J_Latest">Data1!$Z$149</definedName>
+    <definedName name="A3515929R">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3515929R_Data">Data1!$AA$11:$AA$149</definedName>
+    <definedName name="A3515929R_Latest">Data1!$AA$149</definedName>
+    <definedName name="A3515932C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3515932C_Data">Data1!$AB$11:$AB$149</definedName>
+    <definedName name="A3515932C_Latest">Data1!$AB$149</definedName>
+    <definedName name="A3515935K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3515935K_Data">Data1!$AD$11:$AD$149</definedName>
+    <definedName name="A3515935K_Latest">Data1!$AD$149</definedName>
+    <definedName name="A3515938T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3515938T_Data">Data1!$AE$11:$AE$149</definedName>
+    <definedName name="A3515938T_Latest">Data1!$AE$149</definedName>
+    <definedName name="A3515941F">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3515941F_Data">Data1!$AF$11:$AF$149</definedName>
+    <definedName name="A3515941F_Latest">Data1!$AF$149</definedName>
+    <definedName name="A3515944L">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3515944L_Data">Data1!$AG$11:$AG$149</definedName>
+    <definedName name="A3515944L_Latest">Data1!$AG$149</definedName>
+    <definedName name="A3515947V">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3515947V_Data">Data1!$AH$11:$AH$149</definedName>
+    <definedName name="A3515947V_Latest">Data1!$AH$149</definedName>
+    <definedName name="A3515959C">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3515959C_Data">Data1!$AO$11:$AO$149</definedName>
+    <definedName name="A3515959C_Latest">Data1!$AO$149</definedName>
+    <definedName name="A3515962T">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3515962T_Data">Data1!$AQ$11:$AQ$149</definedName>
+    <definedName name="A3515962T_Latest">Data1!$AQ$149</definedName>
+    <definedName name="A3515965X">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3515965X_Data">Data1!$AR$11:$AR$149</definedName>
+    <definedName name="A3515965X_Latest">Data1!$AR$149</definedName>
+    <definedName name="A3515968F">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3515968F_Data">Data1!$AS$11:$AS$149</definedName>
+    <definedName name="A3515968F_Latest">Data1!$AS$149</definedName>
+    <definedName name="A3515971V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3515971V_Data">Data1!$AT$11:$AT$149</definedName>
+    <definedName name="A3515971V_Latest">Data1!$AT$149</definedName>
+    <definedName name="A3515974A">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3515974A_Data">Data1!$AU$11:$AU$149</definedName>
+    <definedName name="A3515974A_Latest">Data1!$AU$149</definedName>
+    <definedName name="A3515977J">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3515977J_Data">Data1!$AW$11:$AW$149</definedName>
+    <definedName name="A3515977J_Latest">Data1!$AW$149</definedName>
+    <definedName name="A3515980W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3515980W_Data">Data1!$AX$11:$AX$149</definedName>
+    <definedName name="A3515980W_Latest">Data1!$AX$149</definedName>
+    <definedName name="A3515983C">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3515983C_Data">Data1!$AY$11:$AY$149</definedName>
+    <definedName name="A3515983C_Latest">Data1!$AY$149</definedName>
+    <definedName name="A3515986K">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3515986K_Data">Data1!$AZ$11:$AZ$149</definedName>
+    <definedName name="A3515986K_Latest">Data1!$AZ$149</definedName>
+    <definedName name="A3515989T">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3515989T_Data">Data1!$BA$11:$BA$149</definedName>
+    <definedName name="A3515989T_Latest">Data1!$BA$149</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$149</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$149</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1352,10 +1352,10 @@
         <v>32021</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>66</v>
@@ -1384,10 +1384,10 @@
         <v>32021</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>66</v>
@@ -1416,10 +1416,10 @@
         <v>32021</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>66</v>
@@ -1448,10 +1448,10 @@
         <v>32021</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>66</v>
@@ -1480,10 +1480,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>66</v>
@@ -1512,10 +1512,10 @@
         <v>32021</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>66</v>
@@ -1544,10 +1544,10 @@
         <v>32021</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>66</v>
@@ -1576,10 +1576,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>66</v>
@@ -1608,10 +1608,10 @@
         <v>32021</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>66</v>
@@ -1640,10 +1640,10 @@
         <v>32021</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>66</v>
@@ -1672,10 +1672,10 @@
         <v>32021</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>66</v>
@@ -1704,10 +1704,10 @@
         <v>32021</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>66</v>
@@ -1736,10 +1736,10 @@
         <v>32021</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>66</v>
@@ -1768,10 +1768,10 @@
         <v>32021</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>66</v>
@@ -1800,10 +1800,10 @@
         <v>32021</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>66</v>
@@ -1832,10 +1832,10 @@
         <v>32021</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>66</v>
@@ -1864,10 +1864,10 @@
         <v>32021</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>66</v>
@@ -1896,10 +1896,10 @@
         <v>32021</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>66</v>
@@ -1928,10 +1928,10 @@
         <v>32021</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>66</v>
@@ -1960,10 +1960,10 @@
         <v>32021</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>66</v>
@@ -1992,10 +1992,10 @@
         <v>32021</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>66</v>
@@ -2024,10 +2024,10 @@
         <v>32021</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
@@ -2056,10 +2056,10 @@
         <v>32021</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>66</v>
@@ -2088,10 +2088,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>66</v>
@@ -2120,10 +2120,10 @@
         <v>32021</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>66</v>
@@ -2152,10 +2152,10 @@
         <v>32021</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>66</v>
@@ -2184,10 +2184,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>66</v>
@@ -2216,10 +2216,10 @@
         <v>32021</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>66</v>
@@ -2248,10 +2248,10 @@
         <v>32021</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>66</v>
@@ -2280,10 +2280,10 @@
         <v>32021</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>66</v>
@@ -2312,10 +2312,10 @@
         <v>32021</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>66</v>
@@ -2344,10 +2344,10 @@
         <v>32021</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>66</v>
@@ -2376,10 +2376,10 @@
         <v>32021</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>66</v>
@@ -2408,10 +2408,10 @@
         <v>32021</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>66</v>
@@ -2440,10 +2440,10 @@
         <v>32021</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>66</v>
@@ -2472,10 +2472,10 @@
         <v>32021</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>66</v>
@@ -2504,10 +2504,10 @@
         <v>32021</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>66</v>
@@ -2536,10 +2536,10 @@
         <v>32021</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>66</v>
@@ -2568,10 +2568,10 @@
         <v>32021</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>66</v>
@@ -2600,10 +2600,10 @@
         <v>32021</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>66</v>
@@ -2632,10 +2632,10 @@
         <v>32021</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>66</v>
@@ -2664,10 +2664,10 @@
         <v>32021</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>66</v>
@@ -2696,10 +2696,10 @@
         <v>42979</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>66</v>
@@ -2728,10 +2728,10 @@
         <v>32021</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>66</v>
@@ -2760,10 +2760,10 @@
         <v>32021</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>66</v>
@@ -2792,10 +2792,10 @@
         <v>42979</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>66</v>
@@ -2824,10 +2824,10 @@
         <v>32021</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>66</v>
@@ -2856,10 +2856,10 @@
         <v>32021</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>66</v>
@@ -2888,10 +2888,10 @@
         <v>32021</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>66</v>
@@ -2920,10 +2920,10 @@
         <v>32021</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>66</v>
@@ -2952,10 +2952,10 @@
         <v>32021</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>66</v>
@@ -2984,10 +2984,10 @@
         <v>32021</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>66</v>
@@ -3016,10 +3016,10 @@
         <v>32021</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>66</v>
@@ -3048,10 +3048,10 @@
         <v>32021</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>66</v>
@@ -3080,10 +3080,10 @@
         <v>32021</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>66</v>
@@ -3112,10 +3112,10 @@
         <v>32021</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>66</v>
@@ -3144,10 +3144,10 @@
         <v>32021</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>66</v>
@@ -3242,7 +3242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF148"/>
+  <dimension ref="A1:BF149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4490,175 +4490,175 @@
         <v>63</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -4666,175 +4666,175 @@
         <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AR9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AT9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AV9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AY9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BF9" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -5442,7 +5442,7 @@
         <v>1986</v>
       </c>
       <c r="AP13" s="8">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="AQ13" s="8">
         <v>2092</v>
@@ -5516,7 +5516,7 @@
         <v>154</v>
       </c>
       <c r="J14" s="8">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K14" s="8">
         <v>151</v>
@@ -5618,7 +5618,7 @@
         <v>189</v>
       </c>
       <c r="AV14" s="8">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AW14" s="8">
         <v>665</v>
@@ -5966,7 +5966,7 @@
         <v>32568</v>
       </c>
       <c r="B17" s="8">
-        <v>8075</v>
+        <v>8074</v>
       </c>
       <c r="C17" s="8">
         <v>924</v>
@@ -6002,7 +6002,7 @@
         <v>659</v>
       </c>
       <c r="N17" s="8">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="O17" s="8">
         <v>97</v>
@@ -6068,7 +6068,7 @@
         <v>44</v>
       </c>
       <c r="AN17" s="8">
-        <v>9351</v>
+        <v>9350</v>
       </c>
       <c r="AO17" s="8">
         <v>2013</v>
@@ -6142,7 +6142,7 @@
         <v>314</v>
       </c>
       <c r="H18" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I18" s="8">
         <v>207</v>
@@ -6232,7 +6232,7 @@
         <v>1913</v>
       </c>
       <c r="AP18" s="8">
-        <v>7403</v>
+        <v>7402</v>
       </c>
       <c r="AQ18" s="8">
         <v>2365</v>
@@ -6560,7 +6560,7 @@
         <v>372</v>
       </c>
       <c r="AT20" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AU20" s="8">
         <v>214</v>
@@ -6578,7 +6578,7 @@
         <v>193</v>
       </c>
       <c r="AZ20" s="8">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="BA20" s="8">
         <v>178</v>
@@ -6622,7 +6622,7 @@
         <v>157</v>
       </c>
       <c r="J21" s="8">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K21" s="8">
         <v>198</v>
@@ -6634,7 +6634,7 @@
         <v>910</v>
       </c>
       <c r="N21" s="8">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O21" s="8">
         <v>209</v>
@@ -6777,7 +6777,7 @@
         <v>238</v>
       </c>
       <c r="I22" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J22" s="8">
         <v>650</v>
@@ -6938,7 +6938,7 @@
         <v>161</v>
       </c>
       <c r="J23" s="8">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K23" s="8">
         <v>217</v>
@@ -6950,7 +6950,7 @@
         <v>528</v>
       </c>
       <c r="N23" s="8">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="O23" s="8">
         <v>114</v>
@@ -7096,7 +7096,7 @@
         <v>160</v>
       </c>
       <c r="J24" s="8">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K24" s="8">
         <v>307</v>
@@ -7254,7 +7254,7 @@
         <v>350</v>
       </c>
       <c r="J25" s="8">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K25" s="8">
         <v>189</v>
@@ -7394,7 +7394,7 @@
         <v>1060</v>
       </c>
       <c r="D26" s="8">
-        <v>5655</v>
+        <v>5654</v>
       </c>
       <c r="E26" s="8">
         <v>548</v>
@@ -8044,7 +8044,7 @@
         <v>506</v>
       </c>
       <c r="J30" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K30" s="8">
         <v>99</v>
@@ -8342,7 +8342,7 @@
         <v>1389</v>
       </c>
       <c r="D32" s="8">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E32" s="8">
         <v>674</v>
@@ -8500,7 +8500,7 @@
         <v>1517</v>
       </c>
       <c r="D33" s="8">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="E33" s="8">
         <v>610</v>
@@ -8611,7 +8611,7 @@
         <v>17</v>
       </c>
       <c r="AS33" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AT33" s="8">
         <v>265</v>
@@ -9481,7 +9481,7 @@
         <v>383</v>
       </c>
       <c r="O39" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P39" s="8">
         <v>88</v>
@@ -9544,7 +9544,7 @@
         <v>25</v>
       </c>
       <c r="AN39" s="8">
-        <v>8840</v>
+        <v>8839</v>
       </c>
       <c r="AO39" s="8">
         <v>2355</v>
@@ -9949,7 +9949,7 @@
         <v>178</v>
       </c>
       <c r="M42" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N42" s="8">
         <v>493</v>
@@ -10027,7 +10027,7 @@
         <v>6936</v>
       </c>
       <c r="AQ42" s="8">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AR42" s="8">
         <v>52</v>
@@ -10080,7 +10080,7 @@
         <v>1663</v>
       </c>
       <c r="D43" s="8">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="E43" s="8">
         <v>647</v>
@@ -10089,7 +10089,7 @@
         <v>66</v>
       </c>
       <c r="G43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="8">
         <v>176</v>
@@ -10262,7 +10262,7 @@
         <v>796</v>
       </c>
       <c r="L44" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M44" s="8">
         <v>292</v>
@@ -10674,7 +10674,7 @@
         <v>389</v>
       </c>
       <c r="AV46" s="8">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AW46" s="8">
         <v>1330</v>
@@ -10706,7 +10706,7 @@
         <v>35309</v>
       </c>
       <c r="B47" s="8">
-        <v>8514</v>
+        <v>8513</v>
       </c>
       <c r="C47" s="8">
         <v>1885</v>
@@ -11028,7 +11028,7 @@
         <v>2448</v>
       </c>
       <c r="D49" s="8">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="E49" s="8">
         <v>916</v>
@@ -11180,7 +11180,7 @@
         <v>35582</v>
       </c>
       <c r="B50" s="8">
-        <v>7503</v>
+        <v>7502</v>
       </c>
       <c r="C50" s="8">
         <v>2037</v>
@@ -11344,7 +11344,7 @@
         <v>1898</v>
       </c>
       <c r="D51" s="8">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="E51" s="8">
         <v>1016</v>
@@ -11383,7 +11383,7 @@
         <v>62</v>
       </c>
       <c r="S51" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T51" s="8">
         <v>17</v>
@@ -11520,7 +11520,7 @@
         <v>216</v>
       </c>
       <c r="J52" s="8">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K52" s="8">
         <v>550</v>
@@ -11950,7 +11950,7 @@
         <v>254</v>
       </c>
       <c r="AZ54" s="8">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="BA54" s="8">
         <v>318</v>
@@ -12006,7 +12006,7 @@
         <v>266</v>
       </c>
       <c r="N55" s="8">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O55" s="8">
         <v>95</v>
@@ -12131,7 +12131,7 @@
         <v>8285</v>
       </c>
       <c r="C56" s="8">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="D56" s="8">
         <v>5710</v>
@@ -12394,7 +12394,7 @@
         <v>3483</v>
       </c>
       <c r="AP57" s="8">
-        <v>10263</v>
+        <v>10262</v>
       </c>
       <c r="AQ57" s="8">
         <v>2769</v>
@@ -12477,7 +12477,7 @@
         <v>221</v>
       </c>
       <c r="M58" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N58" s="8">
         <v>932</v>
@@ -13258,7 +13258,7 @@
         <v>206</v>
       </c>
       <c r="J63" s="8">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K63" s="8">
         <v>196</v>
@@ -13354,7 +13354,7 @@
         <v>441</v>
       </c>
       <c r="AT63" s="8">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AU63" s="8">
         <v>519</v>
@@ -13425,7 +13425,7 @@
         <v>155</v>
       </c>
       <c r="M64" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N64" s="8">
         <v>1188</v>
@@ -13726,7 +13726,7 @@
         <v>51</v>
       </c>
       <c r="H66" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I66" s="8">
         <v>289</v>
@@ -13822,7 +13822,7 @@
         <v>2345</v>
       </c>
       <c r="AR66" s="8">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS66" s="8">
         <v>347</v>
@@ -14314,7 +14314,7 @@
         <v>1756</v>
       </c>
       <c r="AX69" s="8">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AY69" s="8">
         <v>335</v>
@@ -14478,7 +14478,7 @@
         <v>363</v>
       </c>
       <c r="AZ70" s="8">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="BA70" s="8">
         <v>433</v>
@@ -15080,7 +15080,7 @@
         <v>3580</v>
       </c>
       <c r="AP74" s="8">
-        <v>12601</v>
+        <v>12600</v>
       </c>
       <c r="AQ74" s="8">
         <v>3457</v>
@@ -15136,7 +15136,7 @@
         <v>1873</v>
       </c>
       <c r="D75" s="8">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="E75" s="8">
         <v>857</v>
@@ -15288,13 +15288,13 @@
         <v>37956</v>
       </c>
       <c r="B76" s="8">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="C76" s="8">
         <v>2083</v>
       </c>
       <c r="D76" s="8">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="E76" s="8">
         <v>821</v>
@@ -15426,7 +15426,7 @@
         <v>472</v>
       </c>
       <c r="AZ76" s="8">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BA76" s="8">
         <v>378</v>
@@ -15706,7 +15706,7 @@
         <v>114</v>
       </c>
       <c r="AN78" s="8">
-        <v>18090</v>
+        <v>18089</v>
       </c>
       <c r="AO78" s="8">
         <v>3269</v>
@@ -16418,7 +16418,7 @@
         <v>418</v>
       </c>
       <c r="J83" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K83" s="8">
         <v>1172</v>
@@ -16502,7 +16502,7 @@
         <v>5346</v>
       </c>
       <c r="AP83" s="8">
-        <v>17325</v>
+        <v>17324</v>
       </c>
       <c r="AQ83" s="8">
         <v>4491</v>
@@ -16660,7 +16660,7 @@
         <v>6156</v>
       </c>
       <c r="AP84" s="8">
-        <v>18726</v>
+        <v>18725</v>
       </c>
       <c r="AQ84" s="8">
         <v>4450</v>
@@ -16842,7 +16842,7 @@
         <v>3027</v>
       </c>
       <c r="AX85" s="8">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AY85" s="8">
         <v>714</v>
@@ -17026,13 +17026,13 @@
         <v>38961</v>
       </c>
       <c r="B87" s="8">
-        <v>12519</v>
+        <v>12518</v>
       </c>
       <c r="C87" s="8">
         <v>5257</v>
       </c>
       <c r="D87" s="8">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="E87" s="8">
         <v>1471</v>
@@ -17187,7 +17187,7 @@
         <v>11837</v>
       </c>
       <c r="C88" s="8">
-        <v>5159</v>
+        <v>5160</v>
       </c>
       <c r="D88" s="8">
         <v>6653</v>
@@ -17301,7 +17301,7 @@
         <v>882</v>
       </c>
       <c r="AS88" s="8">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AT88" s="8">
         <v>723</v>
@@ -17638,7 +17638,7 @@
         <v>657</v>
       </c>
       <c r="AZ90" s="8">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="BA90" s="8">
         <v>792</v>
@@ -17664,13 +17664,13 @@
         <v>5955</v>
       </c>
       <c r="D91" s="8">
-        <v>8330</v>
+        <v>8329</v>
       </c>
       <c r="E91" s="8">
         <v>1132</v>
       </c>
       <c r="F91" s="8">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G91" s="8">
         <v>39</v>
@@ -17772,7 +17772,7 @@
         <v>3605</v>
       </c>
       <c r="AR91" s="8">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AS91" s="8">
         <v>1086</v>
@@ -17796,7 +17796,7 @@
         <v>630</v>
       </c>
       <c r="AZ91" s="8">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="BA91" s="8">
         <v>715</v>
@@ -17819,13 +17819,13 @@
         <v>15424</v>
       </c>
       <c r="C92" s="8">
-        <v>6283</v>
+        <v>6284</v>
       </c>
       <c r="D92" s="8">
         <v>9112</v>
       </c>
       <c r="E92" s="8">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F92" s="8">
         <v>833</v>
@@ -17852,7 +17852,7 @@
         <v>184</v>
       </c>
       <c r="N92" s="8">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="O92" s="8">
         <v>118</v>
@@ -17974,7 +17974,7 @@
         <v>39508</v>
       </c>
       <c r="B93" s="8">
-        <v>15579</v>
+        <v>15580</v>
       </c>
       <c r="C93" s="8">
         <v>6519</v>
@@ -18055,7 +18055,7 @@
         <v>2136</v>
       </c>
       <c r="AE93" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF93" s="8">
         <v>447</v>
@@ -18103,7 +18103,7 @@
         <v>887</v>
       </c>
       <c r="AW93" s="8">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="AX93" s="8">
         <v>1727</v>
@@ -18234,13 +18234,13 @@
         <v>176</v>
       </c>
       <c r="AN94" s="8">
-        <v>31218</v>
+        <v>31217</v>
       </c>
       <c r="AO94" s="8">
         <v>10249</v>
       </c>
       <c r="AP94" s="8">
-        <v>20780</v>
+        <v>20779</v>
       </c>
       <c r="AQ94" s="8">
         <v>3669</v>
@@ -18392,10 +18392,10 @@
         <v>166</v>
       </c>
       <c r="AN95" s="8">
-        <v>32932</v>
+        <v>32931</v>
       </c>
       <c r="AO95" s="8">
-        <v>10815</v>
+        <v>10816</v>
       </c>
       <c r="AP95" s="8">
         <v>21906</v>
@@ -18410,13 +18410,13 @@
         <v>875</v>
       </c>
       <c r="AT95" s="8">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AU95" s="8">
         <v>1157</v>
       </c>
       <c r="AV95" s="8">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AW95" s="8">
         <v>3565</v>
@@ -18550,7 +18550,7 @@
         <v>161</v>
       </c>
       <c r="AN96" s="8">
-        <v>34216</v>
+        <v>34215</v>
       </c>
       <c r="AO96" s="8">
         <v>11721</v>
@@ -18606,7 +18606,7 @@
         <v>39873</v>
       </c>
       <c r="B97" s="8">
-        <v>17960</v>
+        <v>17961</v>
       </c>
       <c r="C97" s="8">
         <v>8616</v>
@@ -18735,10 +18735,10 @@
         <v>809</v>
       </c>
       <c r="AW97" s="8">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="AX97" s="8">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AY97" s="8">
         <v>695</v>
@@ -18866,7 +18866,7 @@
         <v>380</v>
       </c>
       <c r="AN98" s="8">
-        <v>32792</v>
+        <v>32791</v>
       </c>
       <c r="AO98" s="8">
         <v>10085</v>
@@ -18893,10 +18893,10 @@
         <v>1073</v>
       </c>
       <c r="AW98" s="8">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="AX98" s="8">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AY98" s="8">
         <v>605</v>
@@ -19340,7 +19340,7 @@
         <v>216</v>
       </c>
       <c r="AN101" s="8">
-        <v>32421</v>
+        <v>32422</v>
       </c>
       <c r="AO101" s="8">
         <v>10360</v>
@@ -19396,7 +19396,7 @@
         <v>40330</v>
       </c>
       <c r="B102" s="8">
-        <v>17343</v>
+        <v>17342</v>
       </c>
       <c r="C102" s="8">
         <v>8473</v>
@@ -19525,7 +19525,7 @@
         <v>722</v>
       </c>
       <c r="AW102" s="8">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="AX102" s="8">
         <v>1227</v>
@@ -19557,7 +19557,7 @@
         <v>19357</v>
       </c>
       <c r="C103" s="8">
-        <v>9760</v>
+        <v>9761</v>
       </c>
       <c r="D103" s="8">
         <v>9522</v>
@@ -19599,7 +19599,7 @@
         <v>43</v>
       </c>
       <c r="S103" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T103" s="8">
         <v>102</v>
@@ -19641,7 +19641,7 @@
         <v>439</v>
       </c>
       <c r="AG103" s="8">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AH103" s="8">
         <v>645</v>
@@ -19662,7 +19662,7 @@
         <v>12327</v>
       </c>
       <c r="AP103" s="8">
-        <v>20590</v>
+        <v>20589</v>
       </c>
       <c r="AQ103" s="8">
         <v>3331</v>
@@ -19680,7 +19680,7 @@
         <v>1074</v>
       </c>
       <c r="AV103" s="8">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AW103" s="8">
         <v>2385</v>
@@ -19692,7 +19692,7 @@
         <v>615</v>
       </c>
       <c r="AZ103" s="8">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="BA103" s="8">
         <v>830</v>
@@ -19718,7 +19718,7 @@
         <v>9483</v>
       </c>
       <c r="D104" s="8">
-        <v>9616</v>
+        <v>9615</v>
       </c>
       <c r="E104" s="8">
         <v>1408</v>
@@ -19790,7 +19790,7 @@
         <v>583</v>
       </c>
       <c r="AD104" s="8">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="AE104" s="8">
         <v>457</v>
@@ -19814,7 +19814,7 @@
         <v>184</v>
       </c>
       <c r="AN104" s="8">
-        <v>34408</v>
+        <v>34407</v>
       </c>
       <c r="AO104" s="8">
         <v>12193</v>
@@ -19835,7 +19835,7 @@
         <v>873</v>
       </c>
       <c r="AU104" s="8">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AV104" s="8">
         <v>907</v>
@@ -19897,7 +19897,7 @@
         <v>357</v>
       </c>
       <c r="K105" s="8">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="L105" s="8">
         <v>890</v>
@@ -19978,10 +19978,10 @@
         <v>13477</v>
       </c>
       <c r="AP105" s="8">
-        <v>23142</v>
+        <v>23143</v>
       </c>
       <c r="AQ105" s="8">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="AR105" s="8">
         <v>1769</v>
@@ -20028,7 +20028,7 @@
         <v>40695</v>
       </c>
       <c r="B106" s="8">
-        <v>22767</v>
+        <v>22766</v>
       </c>
       <c r="C106" s="8">
         <v>12367</v>
@@ -20049,7 +20049,7 @@
         <v>165</v>
       </c>
       <c r="I106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J106" s="8">
         <v>353</v>
@@ -20130,7 +20130,7 @@
         <v>257</v>
       </c>
       <c r="AN106" s="8">
-        <v>38802</v>
+        <v>38801</v>
       </c>
       <c r="AO106" s="8">
         <v>15926</v>
@@ -20192,7 +20192,7 @@
         <v>16704</v>
       </c>
       <c r="D107" s="8">
-        <v>10472</v>
+        <v>10471</v>
       </c>
       <c r="E107" s="8">
         <v>1940</v>
@@ -20294,10 +20294,10 @@
         <v>20401</v>
       </c>
       <c r="AP107" s="8">
-        <v>23488</v>
+        <v>23487</v>
       </c>
       <c r="AQ107" s="8">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="AR107" s="8">
         <v>1436</v>
@@ -20344,13 +20344,13 @@
         <v>40878</v>
       </c>
       <c r="B108" s="8">
-        <v>27699</v>
+        <v>27698</v>
       </c>
       <c r="C108" s="8">
         <v>17491</v>
       </c>
       <c r="D108" s="8">
-        <v>10035</v>
+        <v>10034</v>
       </c>
       <c r="E108" s="8">
         <v>1760</v>
@@ -20368,10 +20368,10 @@
         <v>245</v>
       </c>
       <c r="J108" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K108" s="8">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="L108" s="8">
         <v>1167</v>
@@ -20401,7 +20401,7 @@
         <v>3813</v>
       </c>
       <c r="W108" s="8">
-        <v>12958</v>
+        <v>12957</v>
       </c>
       <c r="X108" s="8">
         <v>2135</v>
@@ -20431,7 +20431,7 @@
         <v>476</v>
       </c>
       <c r="AG108" s="8">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AH108" s="8">
         <v>720</v>
@@ -20473,7 +20473,7 @@
         <v>636</v>
       </c>
       <c r="AW108" s="8">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="AX108" s="8">
         <v>1553</v>
@@ -20502,13 +20502,13 @@
         <v>40969</v>
       </c>
       <c r="B109" s="8">
-        <v>31538</v>
+        <v>31539</v>
       </c>
       <c r="C109" s="8">
         <v>20985</v>
       </c>
       <c r="D109" s="8">
-        <v>10333</v>
+        <v>10334</v>
       </c>
       <c r="E109" s="8">
         <v>1715</v>
@@ -20604,13 +20604,13 @@
         <v>248</v>
       </c>
       <c r="AN109" s="8">
-        <v>48012</v>
+        <v>48013</v>
       </c>
       <c r="AO109" s="8">
         <v>25277</v>
       </c>
       <c r="AP109" s="8">
-        <v>22912</v>
+        <v>22913</v>
       </c>
       <c r="AQ109" s="8">
         <v>3718</v>
@@ -20631,7 +20631,7 @@
         <v>624</v>
       </c>
       <c r="AW109" s="8">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="AX109" s="8">
         <v>1510</v>
@@ -20666,7 +20666,7 @@
         <v>23028</v>
       </c>
       <c r="D110" s="8">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E110" s="8">
         <v>1455</v>
@@ -20684,10 +20684,10 @@
         <v>223</v>
       </c>
       <c r="J110" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K110" s="8">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L110" s="8">
         <v>1066</v>
@@ -20699,7 +20699,7 @@
         <v>1841</v>
       </c>
       <c r="O110" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P110" s="8">
         <v>50</v>
@@ -20768,7 +20768,7 @@
         <v>27909</v>
       </c>
       <c r="AP110" s="8">
-        <v>21600</v>
+        <v>21599</v>
       </c>
       <c r="AQ110" s="8">
         <v>3573</v>
@@ -20818,7 +20818,7 @@
         <v>41153</v>
       </c>
       <c r="B111" s="8">
-        <v>31502</v>
+        <v>31501</v>
       </c>
       <c r="C111" s="8">
         <v>22228</v>
@@ -20845,7 +20845,7 @@
         <v>277</v>
       </c>
       <c r="K111" s="8">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L111" s="8">
         <v>1309</v>
@@ -20866,7 +20866,7 @@
         <v>161</v>
       </c>
       <c r="T111" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U111" s="8">
         <v>17177</v>
@@ -20920,13 +20920,13 @@
         <v>248</v>
       </c>
       <c r="AN111" s="8">
-        <v>48464</v>
+        <v>48463</v>
       </c>
       <c r="AO111" s="8">
         <v>27306</v>
       </c>
       <c r="AP111" s="8">
-        <v>21386</v>
+        <v>21385</v>
       </c>
       <c r="AQ111" s="8">
         <v>2910</v>
@@ -21081,10 +21081,10 @@
         <v>47795</v>
       </c>
       <c r="AO112" s="8">
-        <v>27451</v>
+        <v>27452</v>
       </c>
       <c r="AP112" s="8">
-        <v>20576</v>
+        <v>20575</v>
       </c>
       <c r="AQ112" s="8">
         <v>2836</v>
@@ -21140,7 +21140,7 @@
         <v>22035</v>
       </c>
       <c r="D113" s="8">
-        <v>7883</v>
+        <v>7884</v>
       </c>
       <c r="E113" s="8">
         <v>836</v>
@@ -21182,7 +21182,7 @@
         <v>163</v>
       </c>
       <c r="T113" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U113" s="8">
         <v>16267</v>
@@ -21236,13 +21236,13 @@
         <v>237</v>
       </c>
       <c r="AN113" s="8">
-        <v>46250</v>
+        <v>46251</v>
       </c>
       <c r="AO113" s="8">
         <v>26211</v>
       </c>
       <c r="AP113" s="8">
-        <v>20255</v>
+        <v>20256</v>
       </c>
       <c r="AQ113" s="8">
         <v>2758</v>
@@ -21254,7 +21254,7 @@
         <v>1179</v>
       </c>
       <c r="AT113" s="8">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AU113" s="8">
         <v>1190</v>
@@ -21292,13 +21292,13 @@
         <v>41426</v>
       </c>
       <c r="B114" s="8">
-        <v>30785</v>
+        <v>30784</v>
       </c>
       <c r="C114" s="8">
         <v>22853</v>
       </c>
       <c r="D114" s="8">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="E114" s="8">
         <v>769</v>
@@ -21310,7 +21310,7 @@
         <v>28</v>
       </c>
       <c r="H114" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I114" s="8">
         <v>252</v>
@@ -21319,7 +21319,7 @@
         <v>422</v>
       </c>
       <c r="K114" s="8">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L114" s="8">
         <v>1067</v>
@@ -21352,7 +21352,7 @@
         <v>12452</v>
       </c>
       <c r="X114" s="8">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="Y114" s="8">
         <v>640</v>
@@ -21394,19 +21394,19 @@
         <v>312</v>
       </c>
       <c r="AN114" s="8">
-        <v>46562</v>
+        <v>46561</v>
       </c>
       <c r="AO114" s="8">
         <v>26562</v>
       </c>
       <c r="AP114" s="8">
-        <v>20210</v>
+        <v>20209</v>
       </c>
       <c r="AQ114" s="8">
         <v>2567</v>
       </c>
       <c r="AR114" s="8">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AS114" s="8">
         <v>995</v>
@@ -21430,7 +21430,7 @@
         <v>714</v>
       </c>
       <c r="AZ114" s="8">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BA114" s="8">
         <v>724</v>
@@ -21442,7 +21442,7 @@
         <v>294</v>
       </c>
       <c r="BF114" s="8">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.2">
@@ -21450,7 +21450,7 @@
         <v>41518</v>
       </c>
       <c r="B115" s="8">
-        <v>32116</v>
+        <v>32115</v>
       </c>
       <c r="C115" s="8">
         <v>23616</v>
@@ -21486,7 +21486,7 @@
         <v>150</v>
       </c>
       <c r="N115" s="8">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="O115" s="8">
         <v>138</v>
@@ -21522,7 +21522,7 @@
         <v>639</v>
       </c>
       <c r="AB115" s="8">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AC115" s="8">
         <v>401</v>
@@ -21537,10 +21537,10 @@
         <v>606</v>
       </c>
       <c r="AG115" s="8">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AH115" s="8">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AI115" s="8">
         <v>256</v>
@@ -21573,7 +21573,7 @@
         <v>807</v>
       </c>
       <c r="AU115" s="8">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AV115" s="8">
         <v>729</v>
@@ -21588,7 +21588,7 @@
         <v>761</v>
       </c>
       <c r="AZ115" s="8">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="BA115" s="8">
         <v>797</v>
@@ -21608,10 +21608,10 @@
         <v>41609</v>
       </c>
       <c r="B116" s="8">
-        <v>31214</v>
+        <v>31215</v>
       </c>
       <c r="C116" s="8">
-        <v>22863</v>
+        <v>22864</v>
       </c>
       <c r="D116" s="8">
         <v>8090</v>
@@ -21665,7 +21665,7 @@
         <v>2417</v>
       </c>
       <c r="W116" s="8">
-        <v>11946</v>
+        <v>11945</v>
       </c>
       <c r="X116" s="8">
         <v>1820</v>
@@ -21692,7 +21692,7 @@
         <v>347</v>
       </c>
       <c r="AF116" s="8">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG116" s="8">
         <v>1021</v>
@@ -21707,13 +21707,13 @@
         <v>152</v>
       </c>
       <c r="AM116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN116" s="8">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="AO116" s="8">
-        <v>25406</v>
+        <v>25407</v>
       </c>
       <c r="AP116" s="8">
         <v>20094</v>
@@ -21766,19 +21766,19 @@
         <v>41699</v>
       </c>
       <c r="B117" s="8">
-        <v>29688</v>
+        <v>29689</v>
       </c>
       <c r="C117" s="8">
         <v>20683</v>
       </c>
       <c r="D117" s="8">
-        <v>8778</v>
+        <v>8779</v>
       </c>
       <c r="E117" s="8">
         <v>728</v>
       </c>
       <c r="F117" s="8">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G117" s="8">
         <v>106</v>
@@ -21844,7 +21844,7 @@
         <v>497</v>
       </c>
       <c r="AD117" s="8">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AE117" s="8">
         <v>358</v>
@@ -21853,7 +21853,7 @@
         <v>627</v>
       </c>
       <c r="AG117" s="8">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AH117" s="8">
         <v>800</v>
@@ -21868,13 +21868,13 @@
         <v>272</v>
       </c>
       <c r="AN117" s="8">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="AO117" s="8">
-        <v>23437</v>
+        <v>23438</v>
       </c>
       <c r="AP117" s="8">
-        <v>20885</v>
+        <v>20886</v>
       </c>
       <c r="AQ117" s="8">
         <v>2586</v>
@@ -21901,7 +21901,7 @@
         <v>1598</v>
       </c>
       <c r="AY117" s="8">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AZ117" s="8">
         <v>2852</v>
@@ -21924,19 +21924,19 @@
         <v>41791</v>
       </c>
       <c r="B118" s="8">
-        <v>31010</v>
+        <v>31009</v>
       </c>
       <c r="C118" s="8">
-        <v>21572</v>
+        <v>21571</v>
       </c>
       <c r="D118" s="8">
-        <v>9199</v>
+        <v>9198</v>
       </c>
       <c r="E118" s="8">
         <v>712</v>
       </c>
       <c r="F118" s="8">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G118" s="8">
         <v>157</v>
@@ -21951,7 +21951,7 @@
         <v>266</v>
       </c>
       <c r="K118" s="8">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L118" s="8">
         <v>1436</v>
@@ -21981,7 +21981,7 @@
         <v>2397</v>
       </c>
       <c r="W118" s="8">
-        <v>11865</v>
+        <v>11866</v>
       </c>
       <c r="X118" s="8">
         <v>1717</v>
@@ -22026,13 +22026,13 @@
         <v>295</v>
       </c>
       <c r="AN118" s="8">
-        <v>44986</v>
+        <v>44985</v>
       </c>
       <c r="AO118" s="8">
-        <v>24086</v>
+        <v>24085</v>
       </c>
       <c r="AP118" s="8">
-        <v>21094</v>
+        <v>21093</v>
       </c>
       <c r="AQ118" s="8">
         <v>2434</v>
@@ -22047,7 +22047,7 @@
         <v>803</v>
       </c>
       <c r="AU118" s="8">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AV118" s="8">
         <v>720</v>
@@ -22082,13 +22082,13 @@
         <v>41883</v>
       </c>
       <c r="B119" s="8">
-        <v>30315</v>
+        <v>30314</v>
       </c>
       <c r="C119" s="8">
         <v>20129</v>
       </c>
       <c r="D119" s="8">
-        <v>9981</v>
+        <v>9980</v>
       </c>
       <c r="E119" s="8">
         <v>772</v>
@@ -22103,19 +22103,19 @@
         <v>220</v>
       </c>
       <c r="I119" s="8">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J119" s="8">
         <v>323</v>
       </c>
       <c r="K119" s="8">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L119" s="8">
         <v>1211</v>
       </c>
       <c r="M119" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N119" s="8">
         <v>2285</v>
@@ -22160,16 +22160,16 @@
         <v>386</v>
       </c>
       <c r="AD119" s="8">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="AE119" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF119" s="8">
         <v>650</v>
       </c>
       <c r="AG119" s="8">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AH119" s="8">
         <v>808</v>
@@ -22181,16 +22181,16 @@
         <v>190</v>
       </c>
       <c r="AM119" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN119" s="8">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="AO119" s="8">
         <v>22792</v>
       </c>
       <c r="AP119" s="8">
-        <v>22854</v>
+        <v>22853</v>
       </c>
       <c r="AQ119" s="8">
         <v>2354</v>
@@ -22205,13 +22205,13 @@
         <v>911</v>
       </c>
       <c r="AU119" s="8">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="AV119" s="8">
         <v>708</v>
       </c>
       <c r="AW119" s="8">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="AX119" s="8">
         <v>1517</v>
@@ -22226,7 +22226,7 @@
         <v>936</v>
       </c>
       <c r="BB119" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BE119" s="8">
         <v>328</v>
@@ -22240,16 +22240,16 @@
         <v>41974</v>
       </c>
       <c r="B120" s="8">
-        <v>29480</v>
+        <v>29481</v>
       </c>
       <c r="C120" s="8">
-        <v>18849</v>
+        <v>18851</v>
       </c>
       <c r="D120" s="8">
         <v>10460</v>
       </c>
       <c r="E120" s="8">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F120" s="8">
         <v>915</v>
@@ -22261,7 +22261,7 @@
         <v>264</v>
       </c>
       <c r="I120" s="8">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J120" s="8">
         <v>325</v>
@@ -22285,7 +22285,7 @@
         <v>74</v>
       </c>
       <c r="S120" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T120" s="8">
         <v>169</v>
@@ -22297,7 +22297,7 @@
         <v>2609</v>
       </c>
       <c r="W120" s="8">
-        <v>12653</v>
+        <v>12652</v>
       </c>
       <c r="X120" s="8">
         <v>1644</v>
@@ -22312,7 +22312,7 @@
         <v>792</v>
       </c>
       <c r="AB120" s="8">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AC120" s="8">
         <v>505</v>
@@ -22321,13 +22321,13 @@
         <v>1973</v>
       </c>
       <c r="AE120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF120" s="8">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG120" s="8">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AH120" s="8">
         <v>763</v>
@@ -22342,10 +22342,10 @@
         <v>289</v>
       </c>
       <c r="AN120" s="8">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="AO120" s="8">
-        <v>21545</v>
+        <v>21547</v>
       </c>
       <c r="AP120" s="8">
         <v>23128</v>
@@ -22363,19 +22363,19 @@
         <v>1055</v>
       </c>
       <c r="AU120" s="8">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AV120" s="8">
         <v>831</v>
       </c>
       <c r="AW120" s="8">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="AX120" s="8">
         <v>1730</v>
       </c>
       <c r="AY120" s="8">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AZ120" s="8">
         <v>3338</v>
@@ -22398,19 +22398,19 @@
         <v>42064</v>
       </c>
       <c r="B121" s="8">
-        <v>27174</v>
+        <v>27175</v>
       </c>
       <c r="C121" s="8">
-        <v>17898</v>
+        <v>17899</v>
       </c>
       <c r="D121" s="8">
-        <v>9101</v>
+        <v>9102</v>
       </c>
       <c r="E121" s="8">
         <v>542</v>
       </c>
       <c r="F121" s="8">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G121" s="8">
         <v>43</v>
@@ -22425,7 +22425,7 @@
         <v>347</v>
       </c>
       <c r="K121" s="8">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="L121" s="8">
         <v>1324</v>
@@ -22464,7 +22464,7 @@
         <v>472</v>
       </c>
       <c r="Z121" s="8">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AA121" s="8">
         <v>622</v>
@@ -22476,13 +22476,13 @@
         <v>526</v>
       </c>
       <c r="AD121" s="8">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="AE121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF121" s="8">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AG121" s="8">
         <v>954</v>
@@ -22500,13 +22500,13 @@
         <v>335</v>
       </c>
       <c r="AN121" s="8">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="AO121" s="8">
-        <v>20350</v>
+        <v>20349</v>
       </c>
       <c r="AP121" s="8">
-        <v>21873</v>
+        <v>21874</v>
       </c>
       <c r="AQ121" s="8">
         <v>2396</v>
@@ -22515,10 +22515,10 @@
         <v>1350</v>
       </c>
       <c r="AS121" s="8">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="AT121" s="8">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AU121" s="8">
         <v>1402</v>
@@ -22527,10 +22527,10 @@
         <v>874</v>
       </c>
       <c r="AW121" s="8">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="AX121" s="8">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="AY121" s="8">
         <v>989</v>
@@ -22548,7 +22548,7 @@
         <v>347</v>
       </c>
       <c r="BF121" s="8">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:58" x14ac:dyDescent="0.2">
@@ -22556,10 +22556,10 @@
         <v>42156</v>
       </c>
       <c r="B122" s="8">
-        <v>26309</v>
+        <v>26308</v>
       </c>
       <c r="C122" s="8">
-        <v>16297</v>
+        <v>16296</v>
       </c>
       <c r="D122" s="8">
         <v>9883</v>
@@ -22586,7 +22586,7 @@
         <v>1404</v>
       </c>
       <c r="L122" s="8">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M122" s="8">
         <v>219</v>
@@ -22610,7 +22610,7 @@
         <v>14298</v>
       </c>
       <c r="V122" s="8">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="W122" s="8">
         <v>12300</v>
@@ -22622,13 +22622,13 @@
         <v>442</v>
       </c>
       <c r="Z122" s="8">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="AA122" s="8">
         <v>719</v>
       </c>
       <c r="AB122" s="8">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AC122" s="8">
         <v>533</v>
@@ -22658,13 +22658,13 @@
         <v>291</v>
       </c>
       <c r="AN122" s="8">
-        <v>40400</v>
+        <v>40398</v>
       </c>
       <c r="AO122" s="8">
-        <v>18370</v>
+        <v>18368</v>
       </c>
       <c r="AP122" s="8">
-        <v>22190</v>
+        <v>22189</v>
       </c>
       <c r="AQ122" s="8">
         <v>2181</v>
@@ -22700,7 +22700,7 @@
         <v>1071</v>
       </c>
       <c r="BB122" s="8">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BE122" s="8">
         <v>409</v>
@@ -22714,13 +22714,13 @@
         <v>42248</v>
       </c>
       <c r="B123" s="8">
-        <v>23738</v>
+        <v>23737</v>
       </c>
       <c r="C123" s="8">
         <v>14294</v>
       </c>
       <c r="D123" s="8">
-        <v>9335</v>
+        <v>9334</v>
       </c>
       <c r="E123" s="8">
         <v>538</v>
@@ -22741,10 +22741,10 @@
         <v>477</v>
       </c>
       <c r="K123" s="8">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L123" s="8">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="M123" s="8">
         <v>238</v>
@@ -22774,28 +22774,28 @@
         <v>11737</v>
       </c>
       <c r="X123" s="8">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="Y123" s="8">
         <v>451</v>
       </c>
       <c r="Z123" s="8">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AA123" s="8">
         <v>728</v>
       </c>
       <c r="AB123" s="8">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AC123" s="8">
         <v>485</v>
       </c>
       <c r="AD123" s="8">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="AE123" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF123" s="8">
         <v>654</v>
@@ -22816,37 +22816,37 @@
         <v>244</v>
       </c>
       <c r="AN123" s="8">
-        <v>37067</v>
+        <v>37066</v>
       </c>
       <c r="AO123" s="8">
         <v>16074</v>
       </c>
       <c r="AP123" s="8">
-        <v>21118</v>
+        <v>21117</v>
       </c>
       <c r="AQ123" s="8">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="AR123" s="8">
         <v>1461</v>
       </c>
       <c r="AS123" s="8">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AT123" s="8">
         <v>968</v>
       </c>
       <c r="AU123" s="8">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AV123" s="8">
         <v>959</v>
       </c>
       <c r="AW123" s="8">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="AX123" s="8">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="AY123" s="8">
         <v>887</v>
@@ -22858,13 +22858,13 @@
         <v>682</v>
       </c>
       <c r="BB123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BE123" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BF123" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:58" x14ac:dyDescent="0.2">
@@ -22872,10 +22872,10 @@
         <v>42339</v>
       </c>
       <c r="B124" s="8">
-        <v>24319</v>
+        <v>24320</v>
       </c>
       <c r="C124" s="8">
-        <v>14634</v>
+        <v>14635</v>
       </c>
       <c r="D124" s="8">
         <v>9571</v>
@@ -22893,7 +22893,7 @@
         <v>304</v>
       </c>
       <c r="I124" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J124" s="8">
         <v>425</v>
@@ -22902,7 +22902,7 @@
         <v>845</v>
       </c>
       <c r="L124" s="8">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="M124" s="8">
         <v>223</v>
@@ -22914,7 +22914,7 @@
         <v>100</v>
       </c>
       <c r="P124" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S124" s="8">
         <v>248</v>
@@ -22926,7 +22926,7 @@
         <v>13761</v>
       </c>
       <c r="V124" s="8">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="W124" s="8">
         <v>12171</v>
@@ -22935,7 +22935,7 @@
         <v>1752</v>
       </c>
       <c r="Y124" s="8">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z124" s="8">
         <v>1120</v>
@@ -22947,25 +22947,25 @@
         <v>905</v>
       </c>
       <c r="AC124" s="8">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AD124" s="8">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="AE124" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF124" s="8">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AG124" s="8">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AH124" s="8">
         <v>894</v>
       </c>
       <c r="AI124" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL124" s="8">
         <v>127</v>
@@ -22974,10 +22974,10 @@
         <v>276</v>
       </c>
       <c r="AN124" s="8">
-        <v>37919</v>
+        <v>37920</v>
       </c>
       <c r="AO124" s="8">
-        <v>16267</v>
+        <v>16269</v>
       </c>
       <c r="AP124" s="8">
         <v>21780</v>
@@ -22986,7 +22986,7 @@
         <v>2263</v>
       </c>
       <c r="AR124" s="8">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AS124" s="8">
         <v>1163</v>
@@ -22995,28 +22995,28 @@
         <v>996</v>
       </c>
       <c r="AU124" s="8">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AV124" s="8">
         <v>869</v>
       </c>
       <c r="AW124" s="8">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="AX124" s="8">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AY124" s="8">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="AZ124" s="8">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="BA124" s="8">
         <v>1003</v>
       </c>
       <c r="BB124" s="8">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BE124" s="8">
         <v>367</v>
@@ -23036,13 +23036,13 @@
         <v>12019</v>
       </c>
       <c r="D125" s="8">
-        <v>9889</v>
+        <v>9890</v>
       </c>
       <c r="E125" s="8">
         <v>489</v>
       </c>
       <c r="F125" s="8">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G125" s="8">
         <v>59</v>
@@ -23051,7 +23051,7 @@
         <v>463</v>
       </c>
       <c r="I125" s="8">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J125" s="8">
         <v>421</v>
@@ -23084,7 +23084,7 @@
         <v>13831</v>
       </c>
       <c r="V125" s="8">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="W125" s="8">
         <v>12284</v>
@@ -23093,31 +23093,31 @@
         <v>1540</v>
       </c>
       <c r="Y125" s="8">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z125" s="8">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AA125" s="8">
         <v>788</v>
       </c>
       <c r="AB125" s="8">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AC125" s="8">
         <v>334</v>
       </c>
       <c r="AD125" s="8">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="AE125" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF125" s="8">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AG125" s="8">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AH125" s="8">
         <v>939</v>
@@ -23129,46 +23129,46 @@
         <v>140</v>
       </c>
       <c r="AM125" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN125" s="8">
-        <v>35776</v>
+        <v>35777</v>
       </c>
       <c r="AO125" s="8">
         <v>13602</v>
       </c>
       <c r="AP125" s="8">
-        <v>22258</v>
+        <v>22260</v>
       </c>
       <c r="AQ125" s="8">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="AR125" s="8">
         <v>1439</v>
       </c>
       <c r="AS125" s="8">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AT125" s="8">
         <v>1244</v>
       </c>
       <c r="AU125" s="8">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AV125" s="8">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AW125" s="8">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="AX125" s="8">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="AY125" s="8">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AZ125" s="8">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="BA125" s="8">
         <v>1069</v>
@@ -23180,7 +23180,7 @@
         <v>375</v>
       </c>
       <c r="BF125" s="8">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.2">
@@ -23188,13 +23188,13 @@
         <v>42522</v>
       </c>
       <c r="B126" s="8">
-        <v>19683</v>
+        <v>19682</v>
       </c>
       <c r="C126" s="8">
-        <v>10066</v>
+        <v>10065</v>
       </c>
       <c r="D126" s="8">
-        <v>9565</v>
+        <v>9564</v>
       </c>
       <c r="E126" s="8">
         <v>596</v>
@@ -23242,7 +23242,7 @@
         <v>14152</v>
       </c>
       <c r="V126" s="8">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="W126" s="8">
         <v>12679</v>
@@ -23260,22 +23260,22 @@
         <v>920</v>
       </c>
       <c r="AB126" s="8">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AC126" s="8">
         <v>492</v>
       </c>
       <c r="AD126" s="8">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="AE126" s="8">
         <v>389</v>
       </c>
       <c r="AF126" s="8">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AG126" s="8">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="AH126" s="8">
         <v>854</v>
@@ -23287,13 +23287,13 @@
         <v>115</v>
       </c>
       <c r="AM126" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN126" s="8">
-        <v>33753</v>
+        <v>33751</v>
       </c>
       <c r="AO126" s="8">
-        <v>11548</v>
+        <v>11546</v>
       </c>
       <c r="AP126" s="8">
         <v>22262</v>
@@ -23314,10 +23314,10 @@
         <v>1347</v>
       </c>
       <c r="AV126" s="8">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AW126" s="8">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="AX126" s="8">
         <v>1640</v>
@@ -23326,19 +23326,19 @@
         <v>992</v>
       </c>
       <c r="AZ126" s="8">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="BA126" s="8">
         <v>1001</v>
       </c>
       <c r="BB126" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="BE126" s="8">
         <v>352</v>
       </c>
       <c r="BF126" s="8">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:58" x14ac:dyDescent="0.2">
@@ -23346,13 +23346,13 @@
         <v>42614</v>
       </c>
       <c r="B127" s="8">
-        <v>18756</v>
+        <v>18754</v>
       </c>
       <c r="C127" s="8">
         <v>9322</v>
       </c>
       <c r="D127" s="8">
-        <v>9390</v>
+        <v>9388</v>
       </c>
       <c r="E127" s="8">
         <v>529</v>
@@ -23364,7 +23364,7 @@
         <v>56</v>
       </c>
       <c r="H127" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I127" s="8">
         <v>477</v>
@@ -23373,10 +23373,10 @@
         <v>241</v>
       </c>
       <c r="K127" s="8">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L127" s="8">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="M127" s="8">
         <v>154</v>
@@ -23391,10 +23391,10 @@
         <v>59</v>
       </c>
       <c r="S127" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T127" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U127" s="8">
         <v>13852</v>
@@ -23406,37 +23406,37 @@
         <v>12400</v>
       </c>
       <c r="X127" s="8">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="Y127" s="8">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z127" s="8">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AA127" s="8">
         <v>805</v>
       </c>
       <c r="AB127" s="8">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AC127" s="8">
         <v>555</v>
       </c>
       <c r="AD127" s="8">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="AE127" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF127" s="8">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AG127" s="8">
         <v>1253</v>
       </c>
       <c r="AH127" s="8">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AI127" s="8">
         <v>254</v>
@@ -23445,58 +23445,58 @@
         <v>178</v>
       </c>
       <c r="AM127" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN127" s="8">
-        <v>32600</v>
+        <v>32598</v>
       </c>
       <c r="AO127" s="8">
         <v>10785</v>
       </c>
       <c r="AP127" s="8">
-        <v>21854</v>
+        <v>21852</v>
       </c>
       <c r="AQ127" s="8">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AR127" s="8">
         <v>1319</v>
       </c>
       <c r="AS127" s="8">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AT127" s="8">
         <v>1056</v>
       </c>
       <c r="AU127" s="8">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AV127" s="8">
         <v>802</v>
       </c>
       <c r="AW127" s="8">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="AX127" s="8">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AY127" s="8">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="AZ127" s="8">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="BA127" s="8">
         <v>784</v>
       </c>
       <c r="BB127" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BE127" s="8">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BF127" s="8">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
@@ -23504,16 +23504,16 @@
         <v>42705</v>
       </c>
       <c r="B128" s="8">
-        <v>18896</v>
+        <v>18900</v>
       </c>
       <c r="C128" s="8">
-        <v>8950</v>
+        <v>8953</v>
       </c>
       <c r="D128" s="8">
-        <v>9910</v>
+        <v>9912</v>
       </c>
       <c r="E128" s="8">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F128" s="8">
         <v>1009</v>
@@ -23522,31 +23522,31 @@
         <v>61</v>
       </c>
       <c r="H128" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I128" s="8">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J128" s="8">
         <v>356</v>
       </c>
       <c r="K128" s="8">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L128" s="8">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="M128" s="8">
         <v>178</v>
       </c>
       <c r="N128" s="8">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="O128" s="8">
         <v>147</v>
       </c>
       <c r="P128" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S128" s="8">
         <v>226</v>
@@ -23558,37 +23558,37 @@
         <v>13748</v>
       </c>
       <c r="V128" s="8">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="W128" s="8">
-        <v>12188</v>
+        <v>12187</v>
       </c>
       <c r="X128" s="8">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="Y128" s="8">
         <v>369</v>
       </c>
       <c r="Z128" s="8">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AA128" s="8">
         <v>834</v>
       </c>
       <c r="AB128" s="8">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AC128" s="8">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AD128" s="8">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AE128" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF128" s="8">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG128" s="8">
         <v>1071</v>
@@ -23597,7 +23597,7 @@
         <v>682</v>
       </c>
       <c r="AI128" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL128" s="8">
         <v>128</v>
@@ -23606,16 +23606,16 @@
         <v>260</v>
       </c>
       <c r="AN128" s="8">
-        <v>32634</v>
+        <v>32639</v>
       </c>
       <c r="AO128" s="8">
-        <v>10539</v>
+        <v>10543</v>
       </c>
       <c r="AP128" s="8">
         <v>22117</v>
       </c>
       <c r="AQ128" s="8">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="AR128" s="8">
         <v>1386</v>
@@ -23627,19 +23627,19 @@
         <v>1117</v>
       </c>
       <c r="AU128" s="8">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AV128" s="8">
         <v>915</v>
       </c>
       <c r="AW128" s="8">
-        <v>2544</v>
+        <v>2549</v>
       </c>
       <c r="AX128" s="8">
         <v>1989</v>
       </c>
       <c r="AY128" s="8">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AZ128" s="8">
         <v>3266</v>
@@ -23648,10 +23648,10 @@
         <v>830</v>
       </c>
       <c r="BB128" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BE128" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BF128" s="8">
         <v>403</v>
@@ -23662,13 +23662,13 @@
         <v>42795</v>
       </c>
       <c r="B129" s="8">
-        <v>19180</v>
+        <v>19177</v>
       </c>
       <c r="C129" s="8">
-        <v>8647</v>
+        <v>8645</v>
       </c>
       <c r="D129" s="8">
-        <v>10502</v>
+        <v>10501</v>
       </c>
       <c r="E129" s="8">
         <v>769</v>
@@ -23683,7 +23683,7 @@
         <v>338</v>
       </c>
       <c r="I129" s="8">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J129" s="8">
         <v>343</v>
@@ -23695,7 +23695,7 @@
         <v>1686</v>
       </c>
       <c r="M129" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N129" s="8">
         <v>2201</v>
@@ -23707,49 +23707,49 @@
         <v>63</v>
       </c>
       <c r="S129" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T129" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U129" s="8">
         <v>13661</v>
       </c>
       <c r="V129" s="8">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="W129" s="8">
-        <v>12163</v>
+        <v>12164</v>
       </c>
       <c r="X129" s="8">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="Y129" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z129" s="8">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="AA129" s="8">
         <v>728</v>
       </c>
       <c r="AB129" s="8">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="AC129" s="8">
         <v>504</v>
       </c>
       <c r="AD129" s="8">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="AE129" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF129" s="8">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG129" s="8">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AH129" s="8">
         <v>736</v>
@@ -23758,61 +23758,61 @@
         <v>210</v>
       </c>
       <c r="AL129" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM129" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN129" s="8">
-        <v>32851</v>
+        <v>32849</v>
       </c>
       <c r="AO129" s="8">
-        <v>10160</v>
+        <v>10158</v>
       </c>
       <c r="AP129" s="8">
         <v>22704</v>
       </c>
       <c r="AQ129" s="8">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="AR129" s="8">
         <v>1578</v>
       </c>
       <c r="AS129" s="8">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="AT129" s="8">
         <v>1062</v>
       </c>
       <c r="AU129" s="8">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="AV129" s="8">
         <v>850</v>
       </c>
       <c r="AW129" s="8">
-        <v>2910</v>
+        <v>2900</v>
       </c>
       <c r="AX129" s="8">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="AY129" s="8">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AZ129" s="8">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="BA129" s="8">
         <v>890</v>
       </c>
       <c r="BB129" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BE129" s="8">
         <v>363</v>
       </c>
       <c r="BF129" s="8">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
@@ -23829,7 +23829,7 @@
         <v>10766</v>
       </c>
       <c r="E130" s="8">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F130" s="8">
         <v>1108</v>
@@ -23838,10 +23838,10 @@
         <v>120</v>
       </c>
       <c r="H130" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I130" s="8">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J130" s="8">
         <v>339</v>
@@ -23850,7 +23850,7 @@
         <v>1103</v>
       </c>
       <c r="L130" s="8">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="M130" s="8">
         <v>197</v>
@@ -23865,7 +23865,7 @@
         <v>107</v>
       </c>
       <c r="S130" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T130" s="8">
         <v>186</v>
@@ -23874,10 +23874,10 @@
         <v>13957</v>
       </c>
       <c r="V130" s="8">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="W130" s="8">
-        <v>12427</v>
+        <v>12428</v>
       </c>
       <c r="X130" s="8">
         <v>1708</v>
@@ -23892,7 +23892,7 @@
         <v>735</v>
       </c>
       <c r="AB130" s="8">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AC130" s="8">
         <v>494</v>
@@ -23901,13 +23901,13 @@
         <v>1916</v>
       </c>
       <c r="AE130" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF130" s="8">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG130" s="8">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="AH130" s="8">
         <v>800</v>
@@ -23919,13 +23919,13 @@
         <v>182</v>
       </c>
       <c r="AM130" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN130" s="8">
-        <v>33185</v>
+        <v>33183</v>
       </c>
       <c r="AO130" s="8">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="AP130" s="8">
         <v>23174</v>
@@ -23943,22 +23943,22 @@
         <v>1083</v>
       </c>
       <c r="AU130" s="8">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AV130" s="8">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AW130" s="8">
         <v>3002</v>
       </c>
       <c r="AX130" s="8">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="AY130" s="8">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AZ130" s="8">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="BA130" s="8">
         <v>940</v>
@@ -23970,7 +23970,7 @@
         <v>354</v>
       </c>
       <c r="BF130" s="8">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:58" x14ac:dyDescent="0.2">
@@ -23978,16 +23978,16 @@
         <v>42979</v>
       </c>
       <c r="B131" s="8">
-        <v>19613</v>
+        <v>19612</v>
       </c>
       <c r="C131" s="8">
-        <v>8367</v>
+        <v>8368</v>
       </c>
       <c r="D131" s="8">
-        <v>11222</v>
+        <v>11220</v>
       </c>
       <c r="E131" s="8">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F131" s="8">
         <v>1574</v>
@@ -23996,25 +23996,25 @@
         <v>85</v>
       </c>
       <c r="H131" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I131" s="8">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J131" s="8">
         <v>394</v>
       </c>
       <c r="K131" s="8">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="L131" s="8">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="M131" s="8">
         <v>204</v>
       </c>
       <c r="N131" s="8">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="O131" s="8">
         <v>241</v>
@@ -24029,124 +24029,124 @@
         <v>1131</v>
       </c>
       <c r="S131" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T131" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U131" s="8">
         <v>14013</v>
       </c>
       <c r="V131" s="8">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="W131" s="8">
-        <v>12472</v>
+        <v>12471</v>
       </c>
       <c r="X131" s="8">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="Y131" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Z131" s="8">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AA131" s="8">
         <v>801</v>
       </c>
       <c r="AB131" s="8">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AC131" s="8">
         <v>466</v>
       </c>
       <c r="AD131" s="8">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="AE131" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF131" s="8">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG131" s="8">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="AH131" s="8">
         <v>870</v>
       </c>
       <c r="AI131" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AJ131" s="8">
         <v>144</v>
       </c>
       <c r="AK131" s="8">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AL131" s="8">
         <v>141</v>
       </c>
       <c r="AM131" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN131" s="8">
         <v>33629</v>
       </c>
       <c r="AO131" s="8">
-        <v>9926</v>
+        <v>9928</v>
       </c>
       <c r="AP131" s="8">
-        <v>23707</v>
+        <v>23704</v>
       </c>
       <c r="AQ131" s="8">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="AR131" s="8">
         <v>1973</v>
       </c>
       <c r="AS131" s="8">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AT131" s="8">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AU131" s="8">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="AV131" s="8">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AW131" s="8">
-        <v>3003</v>
+        <v>3011</v>
       </c>
       <c r="AX131" s="8">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AY131" s="8">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AZ131" s="8">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="BA131" s="8">
         <v>1111</v>
       </c>
       <c r="BB131" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BC131" s="8">
         <v>669</v>
       </c>
       <c r="BD131" s="8">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="BE131" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BF131" s="8">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:58" x14ac:dyDescent="0.2">
@@ -24154,58 +24154,58 @@
         <v>43070</v>
       </c>
       <c r="B132" s="8">
-        <v>19593</v>
+        <v>19604</v>
       </c>
       <c r="C132" s="8">
-        <v>7653</v>
+        <v>7657</v>
       </c>
       <c r="D132" s="8">
-        <v>11929</v>
+        <v>11935</v>
       </c>
       <c r="E132" s="8">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F132" s="8">
         <v>1761</v>
       </c>
       <c r="G132" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H132" s="8">
         <v>292</v>
       </c>
       <c r="I132" s="8">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J132" s="8">
         <v>393</v>
       </c>
       <c r="K132" s="8">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="L132" s="8">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="M132" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N132" s="8">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="O132" s="8">
         <v>263</v>
       </c>
       <c r="P132" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q132" s="8">
         <v>572</v>
       </c>
       <c r="R132" s="8">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="S132" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T132" s="8">
         <v>138</v>
@@ -24214,112 +24214,112 @@
         <v>14435</v>
       </c>
       <c r="V132" s="8">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="W132" s="8">
-        <v>12425</v>
+        <v>12421</v>
       </c>
       <c r="X132" s="8">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="Y132" s="8">
         <v>375</v>
       </c>
       <c r="Z132" s="8">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="AA132" s="8">
         <v>693</v>
       </c>
       <c r="AB132" s="8">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AC132" s="8">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AD132" s="8">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="AE132" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF132" s="8">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG132" s="8">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="AH132" s="8">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AI132" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ132" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK132" s="8">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AL132" s="8">
         <v>239</v>
       </c>
       <c r="AM132" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AN132" s="8">
-        <v>34036</v>
+        <v>34047</v>
       </c>
       <c r="AO132" s="8">
-        <v>9694</v>
+        <v>9702</v>
       </c>
       <c r="AP132" s="8">
-        <v>24344</v>
+        <v>24347</v>
       </c>
       <c r="AQ132" s="8">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="AR132" s="8">
         <v>2138</v>
       </c>
       <c r="AS132" s="8">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AT132" s="8">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AU132" s="8">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AV132" s="8">
         <v>883</v>
       </c>
       <c r="AW132" s="8">
-        <v>3261</v>
+        <v>3273</v>
       </c>
       <c r="AX132" s="8">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="AY132" s="8">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="AZ132" s="8">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="BA132" s="8">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="BB132" s="8">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BC132" s="8">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BD132" s="8">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="BE132" s="8">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BF132" s="8">
         <v>474</v>
@@ -24330,19 +24330,19 @@
         <v>43160</v>
       </c>
       <c r="B133" s="8">
-        <v>19230</v>
+        <v>19220</v>
       </c>
       <c r="C133" s="8">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="D133" s="8">
-        <v>11659</v>
+        <v>11653</v>
       </c>
       <c r="E133" s="8">
         <v>635</v>
       </c>
       <c r="F133" s="8">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="G133" s="8">
         <v>84</v>
@@ -24351,19 +24351,19 @@
         <v>243</v>
       </c>
       <c r="I133" s="8">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J133" s="8">
         <v>359</v>
       </c>
       <c r="K133" s="8">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="L133" s="8">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="M133" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N133" s="8">
         <v>2130</v>
@@ -24384,121 +24384,121 @@
         <v>210</v>
       </c>
       <c r="T133" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U133" s="8">
         <v>14964</v>
       </c>
       <c r="V133" s="8">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="W133" s="8">
-        <v>12957</v>
+        <v>12960</v>
       </c>
       <c r="X133" s="8">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="Y133" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z133" s="8">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="AA133" s="8">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AB133" s="8">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="AC133" s="8">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AD133" s="8">
-        <v>2081</v>
+        <v>2062</v>
       </c>
       <c r="AE133" s="8">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AF133" s="8">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AG133" s="8">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AH133" s="8">
         <v>787</v>
       </c>
       <c r="AI133" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AJ133" s="8">
         <v>228</v>
       </c>
       <c r="AK133" s="8">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AL133" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM133" s="8">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AN133" s="8">
-        <v>34145</v>
+        <v>34135</v>
       </c>
       <c r="AO133" s="8">
-        <v>9580</v>
+        <v>9573</v>
       </c>
       <c r="AP133" s="8">
-        <v>24572</v>
+        <v>24570</v>
       </c>
       <c r="AQ133" s="8">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="AR133" s="8">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="AS133" s="8">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="AT133" s="8">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AU133" s="8">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="AV133" s="8">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AW133" s="8">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="AX133" s="8">
-        <v>2237</v>
+        <v>2242</v>
       </c>
       <c r="AY133" s="8">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="AZ133" s="8">
-        <v>3481</v>
+        <v>3477</v>
       </c>
       <c r="BA133" s="8">
         <v>902</v>
       </c>
       <c r="BB133" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BC133" s="8">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BD133" s="8">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="BE133" s="8">
         <v>364</v>
       </c>
       <c r="BF133" s="8">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:58" x14ac:dyDescent="0.2">
@@ -24509,16 +24509,16 @@
         <v>18938</v>
       </c>
       <c r="C134" s="8">
-        <v>7066</v>
+        <v>7065</v>
       </c>
       <c r="D134" s="8">
-        <v>11868</v>
+        <v>11869</v>
       </c>
       <c r="E134" s="8">
         <v>621</v>
       </c>
       <c r="F134" s="8">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="G134" s="8">
         <v>75</v>
@@ -24527,16 +24527,16 @@
         <v>247</v>
       </c>
       <c r="I134" s="8">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J134" s="8">
         <v>681</v>
       </c>
       <c r="K134" s="8">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="L134" s="8">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="M134" s="8">
         <v>267</v>
@@ -24557,7 +24557,7 @@
         <v>1143</v>
       </c>
       <c r="S134" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T134" s="8">
         <v>137</v>
@@ -24566,10 +24566,10 @@
         <v>14950</v>
       </c>
       <c r="V134" s="8">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="W134" s="8">
-        <v>12844</v>
+        <v>12847</v>
       </c>
       <c r="X134" s="8">
         <v>1914</v>
@@ -24578,31 +24578,31 @@
         <v>369</v>
       </c>
       <c r="Z134" s="8">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="AA134" s="8">
         <v>898</v>
       </c>
       <c r="AB134" s="8">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AC134" s="8">
         <v>530</v>
       </c>
       <c r="AD134" s="8">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="AE134" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF134" s="8">
         <v>741</v>
       </c>
       <c r="AG134" s="8">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="AH134" s="8">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AI134" s="8">
         <v>205</v>
@@ -24617,55 +24617,55 @@
         <v>164</v>
       </c>
       <c r="AM134" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN134" s="8">
-        <v>33943</v>
+        <v>33941</v>
       </c>
       <c r="AO134" s="8">
-        <v>9189</v>
+        <v>9186</v>
       </c>
       <c r="AP134" s="8">
-        <v>24753</v>
+        <v>24754</v>
       </c>
       <c r="AQ134" s="8">
         <v>2537</v>
       </c>
       <c r="AR134" s="8">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="AS134" s="8">
         <v>1561</v>
       </c>
       <c r="AT134" s="8">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU134" s="8">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="AV134" s="8">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AW134" s="8">
         <v>3448</v>
       </c>
       <c r="AX134" s="8">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="AY134" s="8">
         <v>1007</v>
       </c>
       <c r="AZ134" s="8">
-        <v>3340</v>
+        <v>3344</v>
       </c>
       <c r="BA134" s="8">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="BB134" s="8">
         <v>265</v>
       </c>
       <c r="BC134" s="8">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="BD134" s="8">
         <v>1801</v>
@@ -24674,7 +24674,7 @@
         <v>323</v>
       </c>
       <c r="BF134" s="8">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:58" x14ac:dyDescent="0.2">
@@ -24682,43 +24682,43 @@
         <v>43344</v>
       </c>
       <c r="B135" s="8">
-        <v>18463</v>
+        <v>18461</v>
       </c>
       <c r="C135" s="8">
-        <v>6565</v>
+        <v>6567</v>
       </c>
       <c r="D135" s="8">
-        <v>11895</v>
+        <v>11892</v>
       </c>
       <c r="E135" s="8">
         <v>697</v>
       </c>
       <c r="F135" s="8">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="G135" s="8">
         <v>67</v>
       </c>
       <c r="H135" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I135" s="8">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J135" s="8">
         <v>460</v>
       </c>
       <c r="K135" s="8">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="L135" s="8">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="M135" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N135" s="8">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="O135" s="8">
         <v>233</v>
@@ -24727,130 +24727,130 @@
         <v>113</v>
       </c>
       <c r="Q135" s="8">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R135" s="8">
         <v>1202</v>
       </c>
       <c r="S135" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T135" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U135" s="8">
         <v>15649</v>
       </c>
       <c r="V135" s="8">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="W135" s="8">
-        <v>13452</v>
+        <v>13449</v>
       </c>
       <c r="X135" s="8">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="Y135" s="8">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z135" s="8">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="AA135" s="8">
         <v>874</v>
       </c>
       <c r="AB135" s="8">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="AC135" s="8">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AD135" s="8">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="AE135" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF135" s="8">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG135" s="8">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AH135" s="8">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AI135" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AJ135" s="8">
         <v>229</v>
       </c>
       <c r="AK135" s="8">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AL135" s="8">
         <v>169</v>
       </c>
       <c r="AM135" s="8">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN135" s="8">
-        <v>34131</v>
+        <v>34130</v>
       </c>
       <c r="AO135" s="8">
-        <v>8767</v>
+        <v>8772</v>
       </c>
       <c r="AP135" s="8">
-        <v>25363</v>
+        <v>25356</v>
       </c>
       <c r="AQ135" s="8">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="AR135" s="8">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="AS135" s="8">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="AT135" s="8">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AU135" s="8">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="AV135" s="8">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AW135" s="8">
-        <v>3215</v>
+        <v>3227</v>
       </c>
       <c r="AX135" s="8">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="AY135" s="8">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="AZ135" s="8">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="BA135" s="8">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="BB135" s="8">
         <v>373</v>
       </c>
       <c r="BC135" s="8">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="BD135" s="8">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="BE135" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BF135" s="8">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:58" x14ac:dyDescent="0.2">
@@ -24858,58 +24858,58 @@
         <v>43435</v>
       </c>
       <c r="B136" s="8">
-        <v>19093</v>
+        <v>19104</v>
       </c>
       <c r="C136" s="8">
-        <v>6417</v>
+        <v>6421</v>
       </c>
       <c r="D136" s="8">
-        <v>12680</v>
+        <v>12686</v>
       </c>
       <c r="E136" s="8">
         <v>673</v>
       </c>
       <c r="F136" s="8">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G136" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H136" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I136" s="8">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J136" s="8">
         <v>439</v>
       </c>
       <c r="K136" s="8">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="L136" s="8">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="M136" s="8">
         <v>358</v>
       </c>
       <c r="N136" s="8">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="O136" s="8">
         <v>279</v>
       </c>
       <c r="P136" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q136" s="8">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R136" s="8">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="S136" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T136" s="8">
         <v>108</v>
@@ -24918,115 +24918,115 @@
         <v>15492</v>
       </c>
       <c r="V136" s="8">
-        <v>2129</v>
+        <v>2139</v>
       </c>
       <c r="W136" s="8">
-        <v>13352</v>
+        <v>13342</v>
       </c>
       <c r="X136" s="8">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="Y136" s="8">
         <v>310</v>
       </c>
       <c r="Z136" s="8">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="AA136" s="8">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AB136" s="8">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AC136" s="8">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AD136" s="8">
-        <v>1877</v>
+        <v>1889</v>
       </c>
       <c r="AE136" s="8">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AF136" s="8">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="AG136" s="8">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="AH136" s="8">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AI136" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ136" s="8">
         <v>226</v>
       </c>
       <c r="AK136" s="8">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AL136" s="8">
         <v>201</v>
       </c>
       <c r="AM136" s="8">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN136" s="8">
-        <v>34608</v>
+        <v>34620</v>
       </c>
       <c r="AO136" s="8">
-        <v>8562</v>
+        <v>8576</v>
       </c>
       <c r="AP136" s="8">
-        <v>26044</v>
+        <v>26041</v>
       </c>
       <c r="AQ136" s="8">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="AR136" s="8">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="AS136" s="8">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="AT136" s="8">
         <v>1225</v>
       </c>
       <c r="AU136" s="8">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="AV136" s="8">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AW136" s="8">
-        <v>3753</v>
+        <v>3772</v>
       </c>
       <c r="AX136" s="8">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="AY136" s="8">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="AZ136" s="8">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="BA136" s="8">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="BB136" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="BC136" s="8">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="BD136" s="8">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="BE136" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BF136" s="8">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:58" x14ac:dyDescent="0.2">
@@ -25034,43 +25034,43 @@
         <v>43525</v>
       </c>
       <c r="B137" s="8">
-        <v>18582</v>
+        <v>18569</v>
       </c>
       <c r="C137" s="8">
-        <v>6059</v>
+        <v>6052</v>
       </c>
       <c r="D137" s="8">
-        <v>12522</v>
+        <v>12517</v>
       </c>
       <c r="E137" s="8">
         <v>556</v>
       </c>
       <c r="F137" s="8">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="G137" s="8">
         <v>103</v>
       </c>
       <c r="H137" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I137" s="8">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="J137" s="8">
         <v>531</v>
       </c>
       <c r="K137" s="8">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="L137" s="8">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="M137" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N137" s="8">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="O137" s="8">
         <v>273</v>
@@ -25082,127 +25082,127 @@
         <v>679</v>
       </c>
       <c r="R137" s="8">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S137" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T137" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U137" s="8">
         <v>15598</v>
       </c>
       <c r="V137" s="8">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="W137" s="8">
-        <v>13325</v>
+        <v>13335</v>
       </c>
       <c r="X137" s="8">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="Y137" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z137" s="8">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="AA137" s="8">
         <v>970</v>
       </c>
       <c r="AB137" s="8">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="AC137" s="8">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AD137" s="8">
-        <v>1804</v>
+        <v>1775</v>
       </c>
       <c r="AE137" s="8">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="AF137" s="8">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="AG137" s="8">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="AH137" s="8">
         <v>818</v>
       </c>
       <c r="AI137" s="8">
+        <v>307</v>
+      </c>
+      <c r="AJ137" s="8">
         <v>304</v>
       </c>
-      <c r="AJ137" s="8">
-        <v>303</v>
-      </c>
       <c r="AK137" s="8">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="AL137" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM137" s="8">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AN137" s="8">
-        <v>34119</v>
+        <v>34108</v>
       </c>
       <c r="AO137" s="8">
-        <v>8330</v>
+        <v>8313</v>
       </c>
       <c r="AP137" s="8">
-        <v>25788</v>
+        <v>25794</v>
       </c>
       <c r="AQ137" s="8">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="AR137" s="8">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="AS137" s="8">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="AT137" s="8">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AU137" s="8">
-        <v>1656</v>
+        <v>1668</v>
       </c>
       <c r="AV137" s="8">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AW137" s="8">
-        <v>3710</v>
+        <v>3675</v>
       </c>
       <c r="AX137" s="8">
-        <v>1572</v>
+        <v>1581</v>
       </c>
       <c r="AY137" s="8">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="AZ137" s="8">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="BA137" s="8">
         <v>1088</v>
       </c>
       <c r="BB137" s="8">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="BC137" s="8">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="BD137" s="8">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="BE137" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BF137" s="8">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:58" x14ac:dyDescent="0.2">
@@ -25210,22 +25210,22 @@
         <v>43617</v>
       </c>
       <c r="B138" s="8">
-        <v>17819</v>
+        <v>17822</v>
       </c>
       <c r="C138" s="8">
         <v>6043</v>
       </c>
       <c r="D138" s="8">
-        <v>11778</v>
+        <v>11781</v>
       </c>
       <c r="E138" s="8">
         <v>643</v>
       </c>
       <c r="F138" s="8">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="G138" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H138" s="8">
         <v>183</v>
@@ -25237,13 +25237,13 @@
         <v>552</v>
       </c>
       <c r="K138" s="8">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="L138" s="8">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M138" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N138" s="8">
         <v>2300</v>
@@ -25252,7 +25252,7 @@
         <v>144</v>
       </c>
       <c r="P138" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q138" s="8">
         <v>622</v>
@@ -25270,16 +25270,16 @@
         <v>15899</v>
       </c>
       <c r="V138" s="8">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="W138" s="8">
-        <v>13467</v>
+        <v>13470</v>
       </c>
       <c r="X138" s="8">
         <v>1883</v>
       </c>
       <c r="Y138" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z138" s="8">
         <v>1521</v>
@@ -25291,85 +25291,85 @@
         <v>1073</v>
       </c>
       <c r="AC138" s="8">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AD138" s="8">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="AE138" s="8">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF138" s="8">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AG138" s="8">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="AH138" s="8">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="AI138" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AJ138" s="8">
         <v>205</v>
       </c>
       <c r="AK138" s="8">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AL138" s="8">
         <v>272</v>
       </c>
       <c r="AM138" s="8">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AN138" s="8">
         <v>33748</v>
       </c>
       <c r="AO138" s="8">
-        <v>8468</v>
+        <v>8465</v>
       </c>
       <c r="AP138" s="8">
-        <v>25279</v>
+        <v>25282</v>
       </c>
       <c r="AQ138" s="8">
         <v>2526</v>
       </c>
       <c r="AR138" s="8">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="AS138" s="8">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AT138" s="8">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AU138" s="8">
         <v>1616</v>
       </c>
       <c r="AV138" s="8">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="AW138" s="8">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="AX138" s="8">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="AY138" s="8">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AZ138" s="8">
-        <v>3681</v>
+        <v>3686</v>
       </c>
       <c r="BA138" s="8">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="BB138" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC138" s="8">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="BD138" s="8">
         <v>2063</v>
@@ -25378,7 +25378,7 @@
         <v>481</v>
       </c>
       <c r="BF138" s="8">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:58" x14ac:dyDescent="0.2">
@@ -25386,43 +25386,43 @@
         <v>43709</v>
       </c>
       <c r="B139" s="8">
-        <v>18063</v>
+        <v>18070</v>
       </c>
       <c r="C139" s="8">
-        <v>6087</v>
+        <v>6094</v>
       </c>
       <c r="D139" s="8">
         <v>11976</v>
       </c>
       <c r="E139" s="8">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F139" s="8">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="G139" s="8">
         <v>91</v>
       </c>
       <c r="H139" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I139" s="8">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J139" s="8">
         <v>521</v>
       </c>
       <c r="K139" s="8">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="L139" s="8">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="M139" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N139" s="8">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="O139" s="8">
         <v>84</v>
@@ -25431,130 +25431,130 @@
         <v>78</v>
       </c>
       <c r="Q139" s="8">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R139" s="8">
         <v>1041</v>
       </c>
       <c r="S139" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T139" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U139" s="8">
         <v>15142</v>
       </c>
       <c r="V139" s="8">
-        <v>2726</v>
+        <v>2732</v>
       </c>
       <c r="W139" s="8">
-        <v>12416</v>
+        <v>12410</v>
       </c>
       <c r="X139" s="8">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="Y139" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z139" s="8">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="AA139" s="8">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AB139" s="8">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="AC139" s="8">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AD139" s="8">
-        <v>1583</v>
+        <v>1600</v>
       </c>
       <c r="AE139" s="8">
         <v>410</v>
       </c>
       <c r="AF139" s="8">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG139" s="8">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AH139" s="8">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AI139" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ139" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK139" s="8">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="AL139" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM139" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AN139" s="8">
-        <v>33221</v>
+        <v>33228</v>
       </c>
       <c r="AO139" s="8">
-        <v>8813</v>
+        <v>8826</v>
       </c>
       <c r="AP139" s="8">
-        <v>24407</v>
+        <v>24401</v>
       </c>
       <c r="AQ139" s="8">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="AR139" s="8">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="AS139" s="8">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="AT139" s="8">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AU139" s="8">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="AV139" s="8">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AW139" s="8">
-        <v>3241</v>
+        <v>3254</v>
       </c>
       <c r="AX139" s="8">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AY139" s="8">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AZ139" s="8">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="BA139" s="8">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="BB139" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BC139" s="8">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BD139" s="8">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="BE139" s="8">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="BF139" s="8">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:58" x14ac:dyDescent="0.2">
@@ -25562,58 +25562,58 @@
         <v>43800</v>
       </c>
       <c r="B140" s="8">
-        <v>17306</v>
+        <v>17337</v>
       </c>
       <c r="C140" s="8">
-        <v>5933</v>
+        <v>5942</v>
       </c>
       <c r="D140" s="8">
-        <v>11375</v>
+        <v>11396</v>
       </c>
       <c r="E140" s="8">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F140" s="8">
-        <v>2264</v>
+        <v>2270</v>
       </c>
       <c r="G140" s="8">
         <v>60</v>
       </c>
       <c r="H140" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I140" s="8">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J140" s="8">
         <v>352</v>
       </c>
       <c r="K140" s="8">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="L140" s="8">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="M140" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N140" s="8">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="O140" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P140" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q140" s="8">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="R140" s="8">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="S140" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T140" s="8">
         <v>72</v>
@@ -25622,115 +25622,115 @@
         <v>15259</v>
       </c>
       <c r="V140" s="8">
-        <v>2688</v>
+        <v>2708</v>
       </c>
       <c r="W140" s="8">
-        <v>12573</v>
+        <v>12553</v>
       </c>
       <c r="X140" s="8">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="Y140" s="8">
         <v>316</v>
       </c>
       <c r="Z140" s="8">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="AA140" s="8">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AB140" s="8">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="AC140" s="8">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AD140" s="8">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="AE140" s="8">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="AF140" s="8">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="AG140" s="8">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="AH140" s="8">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AI140" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AJ140" s="8">
         <v>236</v>
       </c>
       <c r="AK140" s="8">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AL140" s="8">
         <v>172</v>
       </c>
       <c r="AM140" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AN140" s="8">
-        <v>32580</v>
+        <v>32611</v>
       </c>
       <c r="AO140" s="8">
-        <v>8613</v>
+        <v>8643</v>
       </c>
       <c r="AP140" s="8">
-        <v>23966</v>
+        <v>23967</v>
       </c>
       <c r="AQ140" s="8">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="AR140" s="8">
-        <v>2580</v>
+        <v>2586</v>
       </c>
       <c r="AS140" s="8">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="AT140" s="8">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AU140" s="8">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="AV140" s="8">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AW140" s="8">
-        <v>3477</v>
+        <v>3504</v>
       </c>
       <c r="AX140" s="8">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="AY140" s="8">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="AZ140" s="8">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="BA140" s="8">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="BB140" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="BC140" s="8">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="BD140" s="8">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="BE140" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BF140" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:58" x14ac:dyDescent="0.2">
@@ -25738,19 +25738,19 @@
         <v>43891</v>
       </c>
       <c r="B141" s="8">
-        <v>17101</v>
+        <v>17078</v>
       </c>
       <c r="C141" s="8">
-        <v>6225</v>
+        <v>6214</v>
       </c>
       <c r="D141" s="8">
-        <v>10875</v>
+        <v>10864</v>
       </c>
       <c r="E141" s="8">
         <v>619</v>
       </c>
       <c r="F141" s="8">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="G141" s="8">
         <v>50</v>
@@ -25759,22 +25759,22 @@
         <v>195</v>
       </c>
       <c r="I141" s="8">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J141" s="8">
         <v>277</v>
       </c>
       <c r="K141" s="8">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="L141" s="8">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="M141" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N141" s="8">
-        <v>2134</v>
+        <v>2139</v>
       </c>
       <c r="O141" s="8">
         <v>136</v>
@@ -25786,127 +25786,127 @@
         <v>670</v>
       </c>
       <c r="R141" s="8">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="S141" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T141" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U141" s="8">
         <v>14927</v>
       </c>
       <c r="V141" s="8">
-        <v>2706</v>
+        <v>2684</v>
       </c>
       <c r="W141" s="8">
-        <v>12219</v>
+        <v>12240</v>
       </c>
       <c r="X141" s="8">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="Y141" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z141" s="8">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="AA141" s="8">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AB141" s="8">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="AC141" s="8">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AD141" s="8">
-        <v>2069</v>
+        <v>2029</v>
       </c>
       <c r="AE141" s="8">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="AF141" s="8">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="AG141" s="8">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AH141" s="8">
         <v>785</v>
       </c>
       <c r="AI141" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AJ141" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK141" s="8">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="AL141" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM141" s="8">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AN141" s="8">
-        <v>31978</v>
+        <v>31958</v>
       </c>
       <c r="AO141" s="8">
-        <v>8940</v>
+        <v>8907</v>
       </c>
       <c r="AP141" s="8">
-        <v>23040</v>
+        <v>23052</v>
       </c>
       <c r="AQ141" s="8">
-        <v>2407</v>
+        <v>2416</v>
       </c>
       <c r="AR141" s="8">
-        <v>2474</v>
+        <v>2468</v>
       </c>
       <c r="AS141" s="8">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="AT141" s="8">
         <v>1023</v>
       </c>
       <c r="AU141" s="8">
-        <v>1204</v>
+        <v>1219</v>
       </c>
       <c r="AV141" s="8">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AW141" s="8">
-        <v>3366</v>
+        <v>3320</v>
       </c>
       <c r="AX141" s="8">
-        <v>1823</v>
+        <v>1840</v>
       </c>
       <c r="AY141" s="8">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="AZ141" s="8">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="BA141" s="8">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="BB141" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="BC141" s="8">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="BD141" s="8">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="BE141" s="8">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="BF141" s="8">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:58" x14ac:dyDescent="0.2">
@@ -25914,16 +25914,16 @@
         <v>43983</v>
       </c>
       <c r="B142" s="8">
-        <v>16042</v>
+        <v>16028</v>
       </c>
       <c r="C142" s="8">
-        <v>6226</v>
+        <v>6220</v>
       </c>
       <c r="D142" s="8">
-        <v>9816</v>
+        <v>9807</v>
       </c>
       <c r="E142" s="8">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F142" s="8">
         <v>1793</v>
@@ -25932,10 +25932,10 @@
         <v>54</v>
       </c>
       <c r="H142" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I142" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J142" s="8">
         <v>191</v>
@@ -25944,13 +25944,13 @@
         <v>1196</v>
       </c>
       <c r="L142" s="8">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="M142" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N142" s="8">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="O142" s="8">
         <v>143</v>
@@ -25962,7 +25962,7 @@
         <v>666</v>
       </c>
       <c r="R142" s="8">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S142" s="8">
         <v>85</v>
@@ -25974,16 +25974,16 @@
         <v>13845</v>
       </c>
       <c r="V142" s="8">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="W142" s="8">
-        <v>11279</v>
+        <v>11284</v>
       </c>
       <c r="X142" s="8">
         <v>1767</v>
       </c>
       <c r="Y142" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z142" s="8">
         <v>1584</v>
@@ -25992,97 +25992,97 @@
         <v>747</v>
       </c>
       <c r="AB142" s="8">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AC142" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AD142" s="8">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="AE142" s="8">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AF142" s="8">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AG142" s="8">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AH142" s="8">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AI142" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ142" s="8">
         <v>168</v>
       </c>
       <c r="AK142" s="8">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AL142" s="8">
         <v>61</v>
       </c>
       <c r="AM142" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN142" s="8">
-        <v>29906</v>
+        <v>29888</v>
       </c>
       <c r="AO142" s="8">
-        <v>8789</v>
+        <v>8779</v>
       </c>
       <c r="AP142" s="8">
-        <v>21117</v>
+        <v>21110</v>
       </c>
       <c r="AQ142" s="8">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="AR142" s="8">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AS142" s="8">
         <v>1638</v>
       </c>
       <c r="AT142" s="8">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AU142" s="8">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="AV142" s="8">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AW142" s="8">
-        <v>2668</v>
+        <v>2673</v>
       </c>
       <c r="AX142" s="8">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="AY142" s="8">
         <v>817</v>
       </c>
       <c r="AZ142" s="8">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="BA142" s="8">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="BB142" s="8">
         <v>213</v>
       </c>
       <c r="BC142" s="8">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="BD142" s="8">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="BE142" s="8">
         <v>146</v>
       </c>
       <c r="BF142" s="8">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:58" x14ac:dyDescent="0.2">
@@ -26090,175 +26090,175 @@
         <v>44075</v>
       </c>
       <c r="B143" s="8">
-        <v>15534</v>
+        <v>15505</v>
       </c>
       <c r="C143" s="8">
-        <v>6036</v>
+        <v>6030</v>
       </c>
       <c r="D143" s="8">
-        <v>9498</v>
+        <v>9475</v>
       </c>
       <c r="E143" s="8">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F143" s="8">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G143" s="8">
         <v>60</v>
       </c>
       <c r="H143" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I143" s="8">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J143" s="8">
         <v>179</v>
       </c>
       <c r="K143" s="8">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="L143" s="8">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="M143" s="8">
         <v>182</v>
       </c>
       <c r="N143" s="8">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="O143" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P143" s="8">
         <v>33</v>
       </c>
       <c r="Q143" s="8">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="R143" s="8">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="S143" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T143" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U143" s="8">
         <v>13550</v>
       </c>
       <c r="V143" s="8">
-        <v>2632</v>
+        <v>2641</v>
       </c>
       <c r="W143" s="8">
-        <v>10919</v>
+        <v>10909</v>
       </c>
       <c r="X143" s="8">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="Y143" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Z143" s="8">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="AA143" s="8">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AB143" s="8">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="AC143" s="8">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AD143" s="8">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="AE143" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF143" s="8">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AG143" s="8">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AH143" s="8">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="AI143" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ143" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK143" s="8">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AL143" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM143" s="8">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AN143" s="8">
-        <v>29084</v>
+        <v>29055</v>
       </c>
       <c r="AO143" s="8">
-        <v>8668</v>
+        <v>8671</v>
       </c>
       <c r="AP143" s="8">
-        <v>20417</v>
+        <v>20384</v>
       </c>
       <c r="AQ143" s="8">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="AR143" s="8">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="AS143" s="8">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="AT143" s="8">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="AU143" s="8">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="AV143" s="8">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AW143" s="8">
-        <v>2307</v>
+        <v>2316</v>
       </c>
       <c r="AX143" s="8">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="AY143" s="8">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="AZ143" s="8">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="BA143" s="8">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="BB143" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BC143" s="8">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="BD143" s="8">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="BE143" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BF143" s="8">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:58" x14ac:dyDescent="0.2">
@@ -26266,52 +26266,52 @@
         <v>44166</v>
       </c>
       <c r="B144" s="8">
-        <v>15697</v>
+        <v>15686</v>
       </c>
       <c r="C144" s="8">
-        <v>6069</v>
+        <v>6064</v>
       </c>
       <c r="D144" s="8">
-        <v>9628</v>
+        <v>9622</v>
       </c>
       <c r="E144" s="8">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F144" s="8">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="G144" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I144" s="8">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J144" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K144" s="8">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="L144" s="8">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="M144" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N144" s="8">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="O144" s="8">
         <v>159</v>
       </c>
       <c r="P144" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q144" s="8">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R144" s="8">
         <v>983</v>
@@ -26320,121 +26320,121 @@
         <v>75</v>
       </c>
       <c r="T144" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U144" s="8">
         <v>14661</v>
       </c>
       <c r="V144" s="8">
-        <v>2501</v>
+        <v>2527</v>
       </c>
       <c r="W144" s="8">
-        <v>12160</v>
+        <v>12134</v>
       </c>
       <c r="X144" s="8">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="Y144" s="8">
         <v>251</v>
       </c>
       <c r="Z144" s="8">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="AA144" s="8">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="AB144" s="8">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="AC144" s="8">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AD144" s="8">
-        <v>1619</v>
+        <v>1641</v>
       </c>
       <c r="AE144" s="8">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="AF144" s="8">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AG144" s="8">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="AH144" s="8">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AI144" s="8">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AJ144" s="8">
         <v>194</v>
       </c>
       <c r="AK144" s="8">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AL144" s="8">
         <v>81</v>
       </c>
       <c r="AM144" s="8">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AN144" s="8">
-        <v>30358</v>
+        <v>30346</v>
       </c>
       <c r="AO144" s="8">
-        <v>8570</v>
+        <v>8591</v>
       </c>
       <c r="AP144" s="8">
-        <v>21788</v>
+        <v>21755</v>
       </c>
       <c r="AQ144" s="8">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="AR144" s="8">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="AS144" s="8">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="AT144" s="8">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AU144" s="8">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="AV144" s="8">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="AW144" s="8">
-        <v>2768</v>
+        <v>2795</v>
       </c>
       <c r="AX144" s="8">
-        <v>1551</v>
+        <v>1533</v>
       </c>
       <c r="AY144" s="8">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="AZ144" s="8">
-        <v>2664</v>
+        <v>2659</v>
       </c>
       <c r="BA144" s="8">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="BB144" s="8">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="BC144" s="8">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BD144" s="8">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="BE144" s="8">
         <v>156</v>
       </c>
       <c r="BF144" s="8">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:58" x14ac:dyDescent="0.2">
@@ -26442,19 +26442,19 @@
         <v>44256</v>
       </c>
       <c r="B145" s="8">
-        <v>16275</v>
+        <v>16194</v>
       </c>
       <c r="C145" s="8">
-        <v>6237</v>
+        <v>6200</v>
       </c>
       <c r="D145" s="8">
-        <v>10038</v>
+        <v>9994</v>
       </c>
       <c r="E145" s="8">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F145" s="8">
-        <v>1935</v>
+        <v>1917</v>
       </c>
       <c r="G145" s="8">
         <v>73</v>
@@ -26463,154 +26463,154 @@
         <v>184</v>
       </c>
       <c r="I145" s="8">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J145" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K145" s="8">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="L145" s="8">
-        <v>1259</v>
+        <v>1239</v>
       </c>
       <c r="M145" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N145" s="8">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="O145" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P145" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q145" s="8">
         <v>570</v>
       </c>
       <c r="R145" s="8">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="S145" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T145" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="U145" s="8">
-        <v>15929</v>
+        <v>15930</v>
       </c>
       <c r="V145" s="8">
-        <v>2693</v>
+        <v>2661</v>
       </c>
       <c r="W145" s="8">
-        <v>13237</v>
+        <v>13268</v>
       </c>
       <c r="X145" s="8">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="Y145" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z145" s="8">
-        <v>1764</v>
+        <v>1781</v>
       </c>
       <c r="AA145" s="8">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AB145" s="8">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="AC145" s="8">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="AD145" s="8">
-        <v>1690</v>
+        <v>1645</v>
       </c>
       <c r="AE145" s="8">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="AF145" s="8">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="AG145" s="8">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="AH145" s="8">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AI145" s="8">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AJ145" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK145" s="8">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="AL145" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM145" s="8">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="AN145" s="8">
-        <v>32204</v>
+        <v>32124</v>
       </c>
       <c r="AO145" s="8">
-        <v>8929</v>
+        <v>8862</v>
       </c>
       <c r="AP145" s="8">
-        <v>23275</v>
+        <v>23262</v>
       </c>
       <c r="AQ145" s="8">
-        <v>2807</v>
+        <v>2815</v>
       </c>
       <c r="AR145" s="8">
-        <v>2279</v>
+        <v>2263</v>
       </c>
       <c r="AS145" s="8">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="AT145" s="8">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="AU145" s="8">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="AV145" s="8">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="AW145" s="8">
-        <v>2987</v>
+        <v>2932</v>
       </c>
       <c r="AX145" s="8">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="AY145" s="8">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="AZ145" s="8">
-        <v>2713</v>
+        <v>2708</v>
       </c>
       <c r="BA145" s="8">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BB145" s="8">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="BC145" s="8">
         <v>854</v>
       </c>
       <c r="BD145" s="8">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="BE145" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BF145" s="8">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:58" x14ac:dyDescent="0.2">
@@ -26618,175 +26618,175 @@
         <v>44348</v>
       </c>
       <c r="B146" s="8">
-        <v>16897</v>
+        <v>16832</v>
       </c>
       <c r="C146" s="8">
-        <v>6282</v>
+        <v>6259</v>
       </c>
       <c r="D146" s="8">
-        <v>10615</v>
+        <v>10573</v>
       </c>
       <c r="E146" s="8">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F146" s="8">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="G146" s="8">
         <v>92</v>
       </c>
       <c r="H146" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I146" s="8">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J146" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K146" s="8">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="L146" s="8">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="M146" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N146" s="8">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="O146" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P146" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q146" s="8">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="R146" s="8">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="S146" s="8">
         <v>86</v>
       </c>
       <c r="T146" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U146" s="8">
         <v>16462</v>
       </c>
       <c r="V146" s="8">
-        <v>2628</v>
+        <v>2623</v>
       </c>
       <c r="W146" s="8">
-        <v>13835</v>
+        <v>13839</v>
       </c>
       <c r="X146" s="8">
         <v>1947</v>
       </c>
       <c r="Y146" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z146" s="8">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="AA146" s="8">
         <v>913</v>
       </c>
       <c r="AB146" s="8">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AC146" s="8">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AD146" s="8">
-        <v>1813</v>
+        <v>1822</v>
       </c>
       <c r="AE146" s="8">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AF146" s="8">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG146" s="8">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="AH146" s="8">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="AI146" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AJ146" s="8">
         <v>253</v>
       </c>
       <c r="AK146" s="8">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AL146" s="8">
         <v>130</v>
       </c>
       <c r="AM146" s="8">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AN146" s="8">
-        <v>33359</v>
+        <v>33294</v>
       </c>
       <c r="AO146" s="8">
-        <v>8910</v>
+        <v>8882</v>
       </c>
       <c r="AP146" s="8">
-        <v>24449</v>
+        <v>24412</v>
       </c>
       <c r="AQ146" s="8">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="AR146" s="8">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="AS146" s="8">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="AT146" s="8">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AU146" s="8">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="AV146" s="8">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="AW146" s="8">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="AX146" s="8">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="AY146" s="8">
         <v>894</v>
       </c>
       <c r="AZ146" s="8">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BA146" s="8">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="BB146" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BC146" s="8">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="BD146" s="8">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="BE146" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BF146" s="8">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="147" spans="1:58" x14ac:dyDescent="0.2">
@@ -26794,175 +26794,175 @@
         <v>44440</v>
       </c>
       <c r="B147" s="8">
-        <v>17066</v>
+        <v>17003</v>
       </c>
       <c r="C147" s="8">
-        <v>6629</v>
+        <v>6611</v>
       </c>
       <c r="D147" s="8">
-        <v>10436</v>
+        <v>10392</v>
       </c>
       <c r="E147" s="8">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F147" s="8">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="G147" s="8">
         <v>22</v>
       </c>
       <c r="H147" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I147" s="8">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J147" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K147" s="8">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="L147" s="8">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="M147" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N147" s="8">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="O147" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P147" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q147" s="8">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="R147" s="8">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="S147" s="8">
+        <v>100</v>
+      </c>
+      <c r="T147" s="8">
         <v>102</v>
       </c>
-      <c r="T147" s="8">
-        <v>105</v>
-      </c>
       <c r="U147" s="8">
-        <v>15913</v>
+        <v>15914</v>
       </c>
       <c r="V147" s="8">
-        <v>2573</v>
+        <v>2585</v>
       </c>
       <c r="W147" s="8">
-        <v>13339</v>
+        <v>13329</v>
       </c>
       <c r="X147" s="8">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="Y147" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Z147" s="8">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="AA147" s="8">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AB147" s="8">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="AC147" s="8">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AD147" s="8">
-        <v>1797</v>
+        <v>1821</v>
       </c>
       <c r="AE147" s="8">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AF147" s="8">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG147" s="8">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="AH147" s="8">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AI147" s="8">
         <v>290</v>
       </c>
       <c r="AJ147" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK147" s="8">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="AL147" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM147" s="8">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AN147" s="8">
-        <v>32978</v>
+        <v>32917</v>
       </c>
       <c r="AO147" s="8">
-        <v>9203</v>
+        <v>9196</v>
       </c>
       <c r="AP147" s="8">
-        <v>23776</v>
+        <v>23721</v>
       </c>
       <c r="AQ147" s="8">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="AR147" s="8">
-        <v>2424</v>
+        <v>2413</v>
       </c>
       <c r="AS147" s="8">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="AT147" s="8">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="AU147" s="8">
-        <v>1561</v>
+        <v>1544</v>
       </c>
       <c r="AV147" s="8">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AW147" s="8">
-        <v>3214</v>
+        <v>3227</v>
       </c>
       <c r="AX147" s="8">
-        <v>1722</v>
+        <v>1734</v>
       </c>
       <c r="AY147" s="8">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AZ147" s="8">
-        <v>3016</v>
+        <v>3002</v>
       </c>
       <c r="BA147" s="8">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="BB147" s="8">
         <v>334</v>
       </c>
       <c r="BC147" s="8">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="BD147" s="8">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="BE147" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BF147" s="8">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:58" x14ac:dyDescent="0.2">
@@ -26970,175 +26970,351 @@
         <v>44531</v>
       </c>
       <c r="B148" s="8">
-        <v>17449</v>
+        <v>17640</v>
       </c>
       <c r="C148" s="8">
-        <v>6926</v>
+        <v>7111</v>
       </c>
       <c r="D148" s="8">
-        <v>10524</v>
+        <v>10529</v>
       </c>
       <c r="E148" s="8">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F148" s="8">
-        <v>1962</v>
+        <v>1945</v>
       </c>
       <c r="G148" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H148" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I148" s="8">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="J148" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K148" s="8">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="L148" s="8">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="M148" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N148" s="8">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="O148" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P148" s="8">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="Q148" s="8">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="R148" s="8">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="S148" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T148" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U148" s="8">
-        <v>15890</v>
+        <v>16029</v>
       </c>
       <c r="V148" s="8">
-        <v>2515</v>
+        <v>2645</v>
       </c>
       <c r="W148" s="8">
-        <v>13375</v>
+        <v>13384</v>
       </c>
       <c r="X148" s="8">
-        <v>1964</v>
+        <v>2002</v>
       </c>
       <c r="Y148" s="8">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="Z148" s="8">
-        <v>1770</v>
+        <v>1753</v>
       </c>
       <c r="AA148" s="8">
         <v>930</v>
       </c>
       <c r="AB148" s="8">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="AC148" s="8">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="AD148" s="8">
-        <v>1799</v>
+        <v>1835</v>
       </c>
       <c r="AE148" s="8">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="AF148" s="8">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AG148" s="8">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="AH148" s="8">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="AI148" s="8">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AJ148" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK148" s="8">
+        <v>818</v>
+      </c>
+      <c r="AL148" s="8">
+        <v>136</v>
+      </c>
+      <c r="AM148" s="8">
+        <v>398</v>
+      </c>
+      <c r="AN148" s="8">
+        <v>33669</v>
+      </c>
+      <c r="AO148" s="8">
+        <v>9755</v>
+      </c>
+      <c r="AP148" s="8">
+        <v>23913</v>
+      </c>
+      <c r="AQ148" s="8">
+        <v>2659</v>
+      </c>
+      <c r="AR148" s="8">
+        <v>2251</v>
+      </c>
+      <c r="AS148" s="8">
+        <v>1858</v>
+      </c>
+      <c r="AT148" s="8">
+        <v>1174</v>
+      </c>
+      <c r="AU148" s="8">
+        <v>1570</v>
+      </c>
+      <c r="AV148" s="8">
+        <v>870</v>
+      </c>
+      <c r="AW148" s="8">
+        <v>3159</v>
+      </c>
+      <c r="AX148" s="8">
+        <v>1931</v>
+      </c>
+      <c r="AY148" s="8">
         <v>861</v>
       </c>
-      <c r="AL148" s="8">
-        <v>137</v>
-      </c>
-      <c r="AM148" s="8">
-        <v>415</v>
-      </c>
-      <c r="AN148" s="8">
-        <v>33339</v>
-      </c>
-      <c r="AO148" s="8">
-        <v>9441</v>
-      </c>
-      <c r="AP148" s="8">
-        <v>23898</v>
-      </c>
-      <c r="AQ148" s="8">
-        <v>2615</v>
-      </c>
-      <c r="AR148" s="8">
-        <v>2285</v>
-      </c>
-      <c r="AS148" s="8">
-        <v>1879</v>
-      </c>
-      <c r="AT148" s="8">
-        <v>1179</v>
-      </c>
-      <c r="AU148" s="8">
-        <v>1606</v>
-      </c>
-      <c r="AV148" s="8">
-        <v>852</v>
-      </c>
-      <c r="AW148" s="8">
-        <v>3143</v>
-      </c>
-      <c r="AX148" s="8">
-        <v>1866</v>
-      </c>
-      <c r="AY148" s="8">
-        <v>858</v>
-      </c>
       <c r="AZ148" s="8">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="BA148" s="8">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="BB148" s="8">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="BC148" s="8">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="BD148" s="8">
-        <v>1686</v>
+        <v>1652</v>
       </c>
       <c r="BE148" s="8">
+        <v>282</v>
+      </c>
+      <c r="BF148" s="8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B149" s="8">
+        <v>17342</v>
+      </c>
+      <c r="C149" s="8">
+        <v>6876</v>
+      </c>
+      <c r="D149" s="8">
+        <v>10466</v>
+      </c>
+      <c r="E149" s="8">
+        <v>650</v>
+      </c>
+      <c r="F149" s="8">
+        <v>2176</v>
+      </c>
+      <c r="G149" s="8">
+        <v>53</v>
+      </c>
+      <c r="H149" s="8">
+        <v>276</v>
+      </c>
+      <c r="I149" s="8">
+        <v>314</v>
+      </c>
+      <c r="J149" s="8">
         <v>280</v>
       </c>
-      <c r="BF148" s="8">
-        <v>535</v>
+      <c r="K149" s="8">
+        <v>1420</v>
+      </c>
+      <c r="L149" s="8">
+        <v>1507</v>
+      </c>
+      <c r="M149" s="8">
+        <v>165</v>
+      </c>
+      <c r="N149" s="8">
+        <v>1780</v>
+      </c>
+      <c r="O149" s="8">
+        <v>116</v>
+      </c>
+      <c r="P149" s="8">
+        <v>85</v>
+      </c>
+      <c r="Q149" s="8">
+        <v>561</v>
+      </c>
+      <c r="R149" s="8">
+        <v>868</v>
+      </c>
+      <c r="S149" s="8">
+        <v>110</v>
+      </c>
+      <c r="T149" s="8">
+        <v>104</v>
+      </c>
+      <c r="U149" s="8">
+        <v>16222</v>
+      </c>
+      <c r="V149" s="8">
+        <v>2848</v>
+      </c>
+      <c r="W149" s="8">
+        <v>13374</v>
+      </c>
+      <c r="X149" s="8">
+        <v>1970</v>
+      </c>
+      <c r="Y149" s="8">
+        <v>297</v>
+      </c>
+      <c r="Z149" s="8">
+        <v>1675</v>
+      </c>
+      <c r="AA149" s="8">
+        <v>970</v>
+      </c>
+      <c r="AB149" s="8">
+        <v>1077</v>
+      </c>
+      <c r="AC149" s="8">
+        <v>536</v>
+      </c>
+      <c r="AD149" s="8">
+        <v>1983</v>
+      </c>
+      <c r="AE149" s="8">
+        <v>306</v>
+      </c>
+      <c r="AF149" s="8">
+        <v>756</v>
+      </c>
+      <c r="AG149" s="8">
+        <v>1226</v>
+      </c>
+      <c r="AH149" s="8">
+        <v>805</v>
+      </c>
+      <c r="AI149" s="8">
+        <v>311</v>
+      </c>
+      <c r="AJ149" s="8">
+        <v>230</v>
+      </c>
+      <c r="AK149" s="8">
+        <v>746</v>
+      </c>
+      <c r="AL149" s="8">
+        <v>126</v>
+      </c>
+      <c r="AM149" s="8">
+        <v>360</v>
+      </c>
+      <c r="AN149" s="8">
+        <v>33564</v>
+      </c>
+      <c r="AO149" s="8">
+        <v>9724</v>
+      </c>
+      <c r="AP149" s="8">
+        <v>23840</v>
+      </c>
+      <c r="AQ149" s="8">
+        <v>2620</v>
+      </c>
+      <c r="AR149" s="8">
+        <v>2473</v>
+      </c>
+      <c r="AS149" s="8">
+        <v>1727</v>
+      </c>
+      <c r="AT149" s="8">
+        <v>1246</v>
+      </c>
+      <c r="AU149" s="8">
+        <v>1391</v>
+      </c>
+      <c r="AV149" s="8">
+        <v>817</v>
+      </c>
+      <c r="AW149" s="8">
+        <v>3404</v>
+      </c>
+      <c r="AX149" s="8">
+        <v>1814</v>
+      </c>
+      <c r="AY149" s="8">
+        <v>921</v>
+      </c>
+      <c r="AZ149" s="8">
+        <v>3006</v>
+      </c>
+      <c r="BA149" s="8">
+        <v>920</v>
+      </c>
+      <c r="BB149" s="8">
+        <v>396</v>
+      </c>
+      <c r="BC149" s="8">
+        <v>791</v>
+      </c>
+      <c r="BD149" s="8">
+        <v>1613</v>
+      </c>
+      <c r="BE149" s="8">
+        <v>236</v>
+      </c>
+      <c r="BF149" s="8">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
